--- a/Documents/Foodies_PR.xlsx
+++ b/Documents/Foodies_PR.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="RTM" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="6">
   <si>
     <t>publisher notes</t>
   </si>
@@ -42,10 +42,10 @@
     <t>Document Version</t>
   </si>
   <si>
-    <t>RTM-ID</t>
+    <t>ID</t>
   </si>
   <si>
-    <t>ID</t>
+    <t>Document ID</t>
   </si>
 </sst>
 </file>
@@ -102,7 +102,343 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="120">
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -141,15 +477,225 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table13" displayName="Table13" ref="A3:F5" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table13" displayName="Table13" ref="A3:F5" totalsRowShown="0" headerRowDxfId="119" dataDxfId="118">
+  <autoFilter ref="A3:F5"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="ID" dataDxfId="117"/>
+    <tableColumn id="2" name="Document ID" dataDxfId="116"/>
+    <tableColumn id="3" name="Document Version" dataDxfId="115"/>
+    <tableColumn id="4" name="Notes" dataDxfId="114"/>
+    <tableColumn id="5" name="Reviewer Name" dataDxfId="113"/>
+    <tableColumn id="6" name="publisher notes" dataDxfId="112"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table1312" displayName="Table1312" ref="A3:F5" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
+  <autoFilter ref="A3:F5"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="ID" dataDxfId="45"/>
+    <tableColumn id="2" name="Document ID" dataDxfId="44"/>
+    <tableColumn id="3" name="Document Version" dataDxfId="43"/>
+    <tableColumn id="4" name="Notes" dataDxfId="42"/>
+    <tableColumn id="5" name="Reviewer Name" dataDxfId="41"/>
+    <tableColumn id="6" name="publisher notes" dataDxfId="40"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table1313" displayName="Table1313" ref="A3:F5" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
+  <autoFilter ref="A3:F5"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="ID" dataDxfId="37"/>
+    <tableColumn id="2" name="Document ID" dataDxfId="36"/>
+    <tableColumn id="3" name="Document Version" dataDxfId="35"/>
+    <tableColumn id="4" name="Notes" dataDxfId="34"/>
+    <tableColumn id="5" name="Reviewer Name" dataDxfId="33"/>
+    <tableColumn id="6" name="publisher notes" dataDxfId="32"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table1314" displayName="Table1314" ref="A3:F5" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
+  <autoFilter ref="A3:F5"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="ID" dataDxfId="29"/>
+    <tableColumn id="2" name="Document ID" dataDxfId="28"/>
+    <tableColumn id="3" name="Document Version" dataDxfId="27"/>
+    <tableColumn id="4" name="Notes" dataDxfId="26"/>
+    <tableColumn id="5" name="Reviewer Name" dataDxfId="25"/>
+    <tableColumn id="6" name="publisher notes" dataDxfId="24"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table1315" displayName="Table1315" ref="A3:F5" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+  <autoFilter ref="A3:F5"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="ID" dataDxfId="21"/>
+    <tableColumn id="2" name="Document ID" dataDxfId="20"/>
+    <tableColumn id="3" name="Document Version" dataDxfId="19"/>
+    <tableColumn id="4" name="Notes" dataDxfId="18"/>
+    <tableColumn id="5" name="Reviewer Name" dataDxfId="17"/>
+    <tableColumn id="6" name="publisher notes" dataDxfId="16"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table1316" displayName="Table1316" ref="A3:F5" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+  <autoFilter ref="A3:F5"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="ID" dataDxfId="13"/>
+    <tableColumn id="2" name="Document ID" dataDxfId="12"/>
+    <tableColumn id="3" name="Document Version" dataDxfId="11"/>
+    <tableColumn id="4" name="Notes" dataDxfId="10"/>
+    <tableColumn id="5" name="Reviewer Name" dataDxfId="9"/>
+    <tableColumn id="6" name="publisher notes" dataDxfId="8"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Table1317" displayName="Table1317" ref="A3:F5" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="A3:F5"/>
   <tableColumns count="6">
     <tableColumn id="1" name="ID" dataDxfId="5"/>
-    <tableColumn id="2" name="RTM-ID" dataDxfId="4"/>
+    <tableColumn id="2" name="Document ID" dataDxfId="4"/>
     <tableColumn id="3" name="Document Version" dataDxfId="3"/>
     <tableColumn id="4" name="Notes" dataDxfId="2"/>
     <tableColumn id="5" name="Reviewer Name" dataDxfId="1"/>
     <tableColumn id="6" name="publisher notes" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table133" displayName="Table133" ref="A3:F5" totalsRowShown="0" headerRowDxfId="111" dataDxfId="110">
+  <autoFilter ref="A3:F5"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="ID" dataDxfId="109"/>
+    <tableColumn id="2" name="Document ID" dataDxfId="108"/>
+    <tableColumn id="3" name="Document Version" dataDxfId="107"/>
+    <tableColumn id="4" name="Notes" dataDxfId="106"/>
+    <tableColumn id="5" name="Reviewer Name" dataDxfId="105"/>
+    <tableColumn id="6" name="publisher notes" dataDxfId="104"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table135" displayName="Table135" ref="A3:F5" totalsRowShown="0" headerRowDxfId="103" dataDxfId="102">
+  <autoFilter ref="A3:F5"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="ID" dataDxfId="101"/>
+    <tableColumn id="2" name="Document ID" dataDxfId="100"/>
+    <tableColumn id="3" name="Document Version" dataDxfId="99"/>
+    <tableColumn id="4" name="Notes" dataDxfId="98"/>
+    <tableColumn id="5" name="Reviewer Name" dataDxfId="97"/>
+    <tableColumn id="6" name="publisher notes" dataDxfId="96"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table136" displayName="Table136" ref="A3:F5" totalsRowShown="0" headerRowDxfId="95" dataDxfId="94">
+  <autoFilter ref="A3:F5"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="ID" dataDxfId="93"/>
+    <tableColumn id="2" name="Document ID" dataDxfId="92"/>
+    <tableColumn id="3" name="Document Version" dataDxfId="91"/>
+    <tableColumn id="4" name="Notes" dataDxfId="90"/>
+    <tableColumn id="5" name="Reviewer Name" dataDxfId="89"/>
+    <tableColumn id="6" name="publisher notes" dataDxfId="88"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table137" displayName="Table137" ref="A3:F5" totalsRowShown="0" headerRowDxfId="87" dataDxfId="86">
+  <autoFilter ref="A3:F5"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="ID" dataDxfId="85"/>
+    <tableColumn id="2" name="Document ID" dataDxfId="84"/>
+    <tableColumn id="3" name="Document Version" dataDxfId="83"/>
+    <tableColumn id="4" name="Notes" dataDxfId="82"/>
+    <tableColumn id="5" name="Reviewer Name" dataDxfId="81"/>
+    <tableColumn id="6" name="publisher notes" dataDxfId="80"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table138" displayName="Table138" ref="A3:F5" totalsRowShown="0" headerRowDxfId="79" dataDxfId="78">
+  <autoFilter ref="A3:F5"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="ID" dataDxfId="77"/>
+    <tableColumn id="2" name="Document ID" dataDxfId="76"/>
+    <tableColumn id="3" name="Document Version" dataDxfId="75"/>
+    <tableColumn id="4" name="Notes" dataDxfId="74"/>
+    <tableColumn id="5" name="Reviewer Name" dataDxfId="73"/>
+    <tableColumn id="6" name="publisher notes" dataDxfId="72"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table139" displayName="Table139" ref="A3:F5" totalsRowShown="0" headerRowDxfId="71" dataDxfId="70">
+  <autoFilter ref="A3:F5"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="ID" dataDxfId="69"/>
+    <tableColumn id="2" name="Document ID" dataDxfId="68"/>
+    <tableColumn id="3" name="Document Version" dataDxfId="67"/>
+    <tableColumn id="4" name="Notes" dataDxfId="66"/>
+    <tableColumn id="5" name="Reviewer Name" dataDxfId="65"/>
+    <tableColumn id="6" name="publisher notes" dataDxfId="64"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table1310" displayName="Table1310" ref="A3:F5" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62">
+  <autoFilter ref="A3:F5"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="ID" dataDxfId="61"/>
+    <tableColumn id="2" name="Document ID" dataDxfId="60"/>
+    <tableColumn id="3" name="Document Version" dataDxfId="59"/>
+    <tableColumn id="4" name="Notes" dataDxfId="58"/>
+    <tableColumn id="5" name="Reviewer Name" dataDxfId="57"/>
+    <tableColumn id="6" name="publisher notes" dataDxfId="56"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table1311" displayName="Table1311" ref="A3:F5" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54">
+  <autoFilter ref="A3:F5"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="ID" dataDxfId="53"/>
+    <tableColumn id="2" name="Document ID" dataDxfId="52"/>
+    <tableColumn id="3" name="Document Version" dataDxfId="51"/>
+    <tableColumn id="4" name="Notes" dataDxfId="50"/>
+    <tableColumn id="5" name="Reviewer Name" dataDxfId="49"/>
+    <tableColumn id="6" name="publisher notes" dataDxfId="48"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -444,8 +990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -459,10 +1005,10 @@
   <sheetData>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>5</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>3</v>
@@ -503,170 +1049,756 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A3:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A3" sqref="A3:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A3:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:F5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A3:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:F5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A3:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:F5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A3:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:F5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A3:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:F5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A3:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:F5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A3:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:F5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/Documents/Foodies_PR.xlsx
+++ b/Documents/Foodies_PR.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="10" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="RTM" sheetId="1" r:id="rId1"/>
@@ -22,13 +22,14 @@
     <sheet name="DefectReport" sheetId="13" r:id="rId13"/>
     <sheet name="TestCaseReport" sheetId="14" r:id="rId14"/>
     <sheet name="IssuesList" sheetId="15" r:id="rId15"/>
+    <sheet name="SDD" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="18">
   <si>
     <t>publisher notes</t>
   </si>
@@ -46,6 +47,42 @@
   </si>
   <si>
     <t>Document ID</t>
+  </si>
+  <si>
+    <t>PR_SDD_001</t>
+  </si>
+  <si>
+    <t>Foodies_Sys_UseCase_001</t>
+  </si>
+  <si>
+    <t>confirmation password is missing at steps number 2</t>
+  </si>
+  <si>
+    <t>Mariam Nesiem</t>
+  </si>
+  <si>
+    <t>PR_SDD_002</t>
+  </si>
+  <si>
+    <t>PR_SDD_003</t>
+  </si>
+  <si>
+    <t>PR_SDD_004</t>
+  </si>
+  <si>
+    <t>Foodies_Sys_UseCase_002</t>
+  </si>
+  <si>
+    <t>Foodies_Sys_UseCase_003</t>
+  </si>
+  <si>
+    <t>step number 4 from steps : system should return to home page not login page</t>
+  </si>
+  <si>
+    <t>step number 3.1 from steps : if user is an admin should be  redirected to admin panel not profiles page</t>
+  </si>
+  <si>
+    <t>step number 1 from steps : user can show loyalty points from user account page</t>
   </si>
 </sst>
 </file>
@@ -87,7 +124,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -98,11 +135,38 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="120">
+  <dxfs count="128">
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -477,7 +541,127 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table13" displayName="Table13" ref="A3:F5" totalsRowShown="0" headerRowDxfId="119" dataDxfId="118">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table13" displayName="Table13" ref="A3:F5" totalsRowShown="0" headerRowDxfId="127" dataDxfId="126">
+  <autoFilter ref="A3:F5"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="ID" dataDxfId="125"/>
+    <tableColumn id="2" name="Document ID" dataDxfId="124"/>
+    <tableColumn id="3" name="Document Version" dataDxfId="123"/>
+    <tableColumn id="4" name="Notes" dataDxfId="122"/>
+    <tableColumn id="5" name="Reviewer Name" dataDxfId="121"/>
+    <tableColumn id="6" name="publisher notes" dataDxfId="120"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table1312" displayName="Table1312" ref="A3:F5" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54">
+  <autoFilter ref="A3:F5"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="ID" dataDxfId="53"/>
+    <tableColumn id="2" name="Document ID" dataDxfId="52"/>
+    <tableColumn id="3" name="Document Version" dataDxfId="51"/>
+    <tableColumn id="4" name="Notes" dataDxfId="50"/>
+    <tableColumn id="5" name="Reviewer Name" dataDxfId="49"/>
+    <tableColumn id="6" name="publisher notes" dataDxfId="48"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table1313" displayName="Table1313" ref="A3:F5" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
+  <autoFilter ref="A3:F5"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="ID" dataDxfId="45"/>
+    <tableColumn id="2" name="Document ID" dataDxfId="44"/>
+    <tableColumn id="3" name="Document Version" dataDxfId="43"/>
+    <tableColumn id="4" name="Notes" dataDxfId="42"/>
+    <tableColumn id="5" name="Reviewer Name" dataDxfId="41"/>
+    <tableColumn id="6" name="publisher notes" dataDxfId="40"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table1314" displayName="Table1314" ref="A3:F5" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
+  <autoFilter ref="A3:F5"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="ID" dataDxfId="37"/>
+    <tableColumn id="2" name="Document ID" dataDxfId="36"/>
+    <tableColumn id="3" name="Document Version" dataDxfId="35"/>
+    <tableColumn id="4" name="Notes" dataDxfId="34"/>
+    <tableColumn id="5" name="Reviewer Name" dataDxfId="33"/>
+    <tableColumn id="6" name="publisher notes" dataDxfId="32"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table1315" displayName="Table1315" ref="A3:F5" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
+  <autoFilter ref="A3:F5"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="ID" dataDxfId="29"/>
+    <tableColumn id="2" name="Document ID" dataDxfId="28"/>
+    <tableColumn id="3" name="Document Version" dataDxfId="27"/>
+    <tableColumn id="4" name="Notes" dataDxfId="26"/>
+    <tableColumn id="5" name="Reviewer Name" dataDxfId="25"/>
+    <tableColumn id="6" name="publisher notes" dataDxfId="24"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table1316" displayName="Table1316" ref="A3:F5" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+  <autoFilter ref="A3:F5"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="ID" dataDxfId="21"/>
+    <tableColumn id="2" name="Document ID" dataDxfId="20"/>
+    <tableColumn id="3" name="Document Version" dataDxfId="19"/>
+    <tableColumn id="4" name="Notes" dataDxfId="18"/>
+    <tableColumn id="5" name="Reviewer Name" dataDxfId="17"/>
+    <tableColumn id="6" name="publisher notes" dataDxfId="16"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Table1317" displayName="Table1317" ref="A3:F5" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+  <autoFilter ref="A3:F5"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="ID" dataDxfId="13"/>
+    <tableColumn id="2" name="Document ID" dataDxfId="12"/>
+    <tableColumn id="3" name="Document Version" dataDxfId="11"/>
+    <tableColumn id="4" name="Notes" dataDxfId="10"/>
+    <tableColumn id="5" name="Reviewer Name" dataDxfId="9"/>
+    <tableColumn id="6" name="publisher notes" dataDxfId="8"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table13174" displayName="Table13174" ref="A3:F11" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A3:F11"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="ID" dataDxfId="5"/>
+    <tableColumn id="2" name="Document ID" dataDxfId="4"/>
+    <tableColumn id="3" name="Document Version" dataDxfId="3"/>
+    <tableColumn id="4" name="Notes" dataDxfId="2"/>
+    <tableColumn id="5" name="Reviewer Name" dataDxfId="1"/>
+    <tableColumn id="6" name="publisher notes" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table133" displayName="Table133" ref="A3:F5" totalsRowShown="0" headerRowDxfId="119" dataDxfId="118">
   <autoFilter ref="A3:F5"/>
   <tableColumns count="6">
     <tableColumn id="1" name="ID" dataDxfId="117"/>
@@ -491,98 +675,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table1312" displayName="Table1312" ref="A3:F5" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
-  <autoFilter ref="A3:F5"/>
-  <tableColumns count="6">
-    <tableColumn id="1" name="ID" dataDxfId="45"/>
-    <tableColumn id="2" name="Document ID" dataDxfId="44"/>
-    <tableColumn id="3" name="Document Version" dataDxfId="43"/>
-    <tableColumn id="4" name="Notes" dataDxfId="42"/>
-    <tableColumn id="5" name="Reviewer Name" dataDxfId="41"/>
-    <tableColumn id="6" name="publisher notes" dataDxfId="40"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table1313" displayName="Table1313" ref="A3:F5" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
-  <autoFilter ref="A3:F5"/>
-  <tableColumns count="6">
-    <tableColumn id="1" name="ID" dataDxfId="37"/>
-    <tableColumn id="2" name="Document ID" dataDxfId="36"/>
-    <tableColumn id="3" name="Document Version" dataDxfId="35"/>
-    <tableColumn id="4" name="Notes" dataDxfId="34"/>
-    <tableColumn id="5" name="Reviewer Name" dataDxfId="33"/>
-    <tableColumn id="6" name="publisher notes" dataDxfId="32"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table1314" displayName="Table1314" ref="A3:F5" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
-  <autoFilter ref="A3:F5"/>
-  <tableColumns count="6">
-    <tableColumn id="1" name="ID" dataDxfId="29"/>
-    <tableColumn id="2" name="Document ID" dataDxfId="28"/>
-    <tableColumn id="3" name="Document Version" dataDxfId="27"/>
-    <tableColumn id="4" name="Notes" dataDxfId="26"/>
-    <tableColumn id="5" name="Reviewer Name" dataDxfId="25"/>
-    <tableColumn id="6" name="publisher notes" dataDxfId="24"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table1315" displayName="Table1315" ref="A3:F5" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
-  <autoFilter ref="A3:F5"/>
-  <tableColumns count="6">
-    <tableColumn id="1" name="ID" dataDxfId="21"/>
-    <tableColumn id="2" name="Document ID" dataDxfId="20"/>
-    <tableColumn id="3" name="Document Version" dataDxfId="19"/>
-    <tableColumn id="4" name="Notes" dataDxfId="18"/>
-    <tableColumn id="5" name="Reviewer Name" dataDxfId="17"/>
-    <tableColumn id="6" name="publisher notes" dataDxfId="16"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table1316" displayName="Table1316" ref="A3:F5" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
-  <autoFilter ref="A3:F5"/>
-  <tableColumns count="6">
-    <tableColumn id="1" name="ID" dataDxfId="13"/>
-    <tableColumn id="2" name="Document ID" dataDxfId="12"/>
-    <tableColumn id="3" name="Document Version" dataDxfId="11"/>
-    <tableColumn id="4" name="Notes" dataDxfId="10"/>
-    <tableColumn id="5" name="Reviewer Name" dataDxfId="9"/>
-    <tableColumn id="6" name="publisher notes" dataDxfId="8"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Table1317" displayName="Table1317" ref="A3:F5" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A3:F5"/>
-  <tableColumns count="6">
-    <tableColumn id="1" name="ID" dataDxfId="5"/>
-    <tableColumn id="2" name="Document ID" dataDxfId="4"/>
-    <tableColumn id="3" name="Document Version" dataDxfId="3"/>
-    <tableColumn id="4" name="Notes" dataDxfId="2"/>
-    <tableColumn id="5" name="Reviewer Name" dataDxfId="1"/>
-    <tableColumn id="6" name="publisher notes" dataDxfId="0"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table133" displayName="Table133" ref="A3:F5" totalsRowShown="0" headerRowDxfId="111" dataDxfId="110">
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table135" displayName="Table135" ref="A3:F5" totalsRowShown="0" headerRowDxfId="111" dataDxfId="110">
   <autoFilter ref="A3:F5"/>
   <tableColumns count="6">
     <tableColumn id="1" name="ID" dataDxfId="109"/>
@@ -596,8 +690,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table135" displayName="Table135" ref="A3:F5" totalsRowShown="0" headerRowDxfId="103" dataDxfId="102">
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table136" displayName="Table136" ref="A3:F5" totalsRowShown="0" headerRowDxfId="103" dataDxfId="102">
   <autoFilter ref="A3:F5"/>
   <tableColumns count="6">
     <tableColumn id="1" name="ID" dataDxfId="101"/>
@@ -611,8 +705,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table136" displayName="Table136" ref="A3:F5" totalsRowShown="0" headerRowDxfId="95" dataDxfId="94">
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table137" displayName="Table137" ref="A3:F5" totalsRowShown="0" headerRowDxfId="95" dataDxfId="94">
   <autoFilter ref="A3:F5"/>
   <tableColumns count="6">
     <tableColumn id="1" name="ID" dataDxfId="93"/>
@@ -626,8 +720,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table137" displayName="Table137" ref="A3:F5" totalsRowShown="0" headerRowDxfId="87" dataDxfId="86">
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table138" displayName="Table138" ref="A3:F5" totalsRowShown="0" headerRowDxfId="87" dataDxfId="86">
   <autoFilter ref="A3:F5"/>
   <tableColumns count="6">
     <tableColumn id="1" name="ID" dataDxfId="85"/>
@@ -641,8 +735,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table138" displayName="Table138" ref="A3:F5" totalsRowShown="0" headerRowDxfId="79" dataDxfId="78">
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table139" displayName="Table139" ref="A3:F5" totalsRowShown="0" headerRowDxfId="79" dataDxfId="78">
   <autoFilter ref="A3:F5"/>
   <tableColumns count="6">
     <tableColumn id="1" name="ID" dataDxfId="77"/>
@@ -656,8 +750,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table139" displayName="Table139" ref="A3:F5" totalsRowShown="0" headerRowDxfId="71" dataDxfId="70">
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table1310" displayName="Table1310" ref="A3:F5" totalsRowShown="0" headerRowDxfId="71" dataDxfId="70">
   <autoFilter ref="A3:F5"/>
   <tableColumns count="6">
     <tableColumn id="1" name="ID" dataDxfId="69"/>
@@ -671,8 +765,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table1310" displayName="Table1310" ref="A3:F5" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62">
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table1311" displayName="Table1311" ref="A3:F5" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62">
   <autoFilter ref="A3:F5"/>
   <tableColumns count="6">
     <tableColumn id="1" name="ID" dataDxfId="61"/>
@@ -681,21 +775,6 @@
     <tableColumn id="4" name="Notes" dataDxfId="58"/>
     <tableColumn id="5" name="Reviewer Name" dataDxfId="57"/>
     <tableColumn id="6" name="publisher notes" dataDxfId="56"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table1311" displayName="Table1311" ref="A3:F5" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54">
-  <autoFilter ref="A3:F5"/>
-  <tableColumns count="6">
-    <tableColumn id="1" name="ID" dataDxfId="53"/>
-    <tableColumn id="2" name="Document ID" dataDxfId="52"/>
-    <tableColumn id="3" name="Document Version" dataDxfId="51"/>
-    <tableColumn id="4" name="Notes" dataDxfId="50"/>
-    <tableColumn id="5" name="Reviewer Name" dataDxfId="49"/>
-    <tableColumn id="6" name="publisher notes" dataDxfId="48"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -990,7 +1069,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
@@ -1371,6 +1450,156 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:F11"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" customWidth="1"/>
+    <col min="4" max="4" width="34.28515625" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" customWidth="1"/>
+    <col min="6" max="6" width="24.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="1"/>
+    </row>
+    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="1"/>
+    </row>
+    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1.5</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:F5"/>

--- a/Documents/Foodies_PR.xlsx
+++ b/Documents/Foodies_PR.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="10" activeTab="15"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" firstSheet="10" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="RTM" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="22">
   <si>
     <t>publisher notes</t>
   </si>
@@ -84,6 +84,18 @@
   <si>
     <t>step number 1 from steps : user can show loyalty points from user account page</t>
   </si>
+  <si>
+    <t>Date of finding</t>
+  </si>
+  <si>
+    <t>Date of Solving</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Fixed</t>
+  </si>
 </sst>
 </file>
 
@@ -124,7 +136,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -138,11 +150,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="128">
+  <dxfs count="131">
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -541,240 +565,243 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table13" displayName="Table13" ref="A3:F5" totalsRowShown="0" headerRowDxfId="127" dataDxfId="126">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table13" displayName="Table13" ref="A3:F5" totalsRowShown="0" headerRowDxfId="130" dataDxfId="129">
   <autoFilter ref="A3:F5"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="ID" dataDxfId="125"/>
-    <tableColumn id="2" name="Document ID" dataDxfId="124"/>
-    <tableColumn id="3" name="Document Version" dataDxfId="123"/>
-    <tableColumn id="4" name="Notes" dataDxfId="122"/>
-    <tableColumn id="5" name="Reviewer Name" dataDxfId="121"/>
-    <tableColumn id="6" name="publisher notes" dataDxfId="120"/>
+    <tableColumn id="1" name="ID" dataDxfId="128"/>
+    <tableColumn id="2" name="Document ID" dataDxfId="127"/>
+    <tableColumn id="3" name="Document Version" dataDxfId="126"/>
+    <tableColumn id="4" name="Notes" dataDxfId="125"/>
+    <tableColumn id="5" name="Reviewer Name" dataDxfId="124"/>
+    <tableColumn id="6" name="publisher notes" dataDxfId="123"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table1312" displayName="Table1312" ref="A3:F5" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table1312" displayName="Table1312" ref="A3:F5" totalsRowShown="0" headerRowDxfId="58" dataDxfId="57">
   <autoFilter ref="A3:F5"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="ID" dataDxfId="53"/>
-    <tableColumn id="2" name="Document ID" dataDxfId="52"/>
-    <tableColumn id="3" name="Document Version" dataDxfId="51"/>
-    <tableColumn id="4" name="Notes" dataDxfId="50"/>
-    <tableColumn id="5" name="Reviewer Name" dataDxfId="49"/>
-    <tableColumn id="6" name="publisher notes" dataDxfId="48"/>
+    <tableColumn id="1" name="ID" dataDxfId="56"/>
+    <tableColumn id="2" name="Document ID" dataDxfId="55"/>
+    <tableColumn id="3" name="Document Version" dataDxfId="54"/>
+    <tableColumn id="4" name="Notes" dataDxfId="53"/>
+    <tableColumn id="5" name="Reviewer Name" dataDxfId="52"/>
+    <tableColumn id="6" name="publisher notes" dataDxfId="51"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table1313" displayName="Table1313" ref="A3:F5" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table1313" displayName="Table1313" ref="A3:F5" totalsRowShown="0" headerRowDxfId="50" dataDxfId="49">
   <autoFilter ref="A3:F5"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="ID" dataDxfId="45"/>
-    <tableColumn id="2" name="Document ID" dataDxfId="44"/>
-    <tableColumn id="3" name="Document Version" dataDxfId="43"/>
-    <tableColumn id="4" name="Notes" dataDxfId="42"/>
-    <tableColumn id="5" name="Reviewer Name" dataDxfId="41"/>
-    <tableColumn id="6" name="publisher notes" dataDxfId="40"/>
+    <tableColumn id="1" name="ID" dataDxfId="48"/>
+    <tableColumn id="2" name="Document ID" dataDxfId="47"/>
+    <tableColumn id="3" name="Document Version" dataDxfId="46"/>
+    <tableColumn id="4" name="Notes" dataDxfId="45"/>
+    <tableColumn id="5" name="Reviewer Name" dataDxfId="44"/>
+    <tableColumn id="6" name="publisher notes" dataDxfId="43"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table1314" displayName="Table1314" ref="A3:F5" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table1314" displayName="Table1314" ref="A3:F5" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41">
   <autoFilter ref="A3:F5"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="ID" dataDxfId="37"/>
-    <tableColumn id="2" name="Document ID" dataDxfId="36"/>
-    <tableColumn id="3" name="Document Version" dataDxfId="35"/>
-    <tableColumn id="4" name="Notes" dataDxfId="34"/>
-    <tableColumn id="5" name="Reviewer Name" dataDxfId="33"/>
-    <tableColumn id="6" name="publisher notes" dataDxfId="32"/>
+    <tableColumn id="1" name="ID" dataDxfId="40"/>
+    <tableColumn id="2" name="Document ID" dataDxfId="39"/>
+    <tableColumn id="3" name="Document Version" dataDxfId="38"/>
+    <tableColumn id="4" name="Notes" dataDxfId="37"/>
+    <tableColumn id="5" name="Reviewer Name" dataDxfId="36"/>
+    <tableColumn id="6" name="publisher notes" dataDxfId="35"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table1315" displayName="Table1315" ref="A3:F5" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table1315" displayName="Table1315" ref="A3:F5" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
   <autoFilter ref="A3:F5"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="ID" dataDxfId="29"/>
-    <tableColumn id="2" name="Document ID" dataDxfId="28"/>
-    <tableColumn id="3" name="Document Version" dataDxfId="27"/>
-    <tableColumn id="4" name="Notes" dataDxfId="26"/>
-    <tableColumn id="5" name="Reviewer Name" dataDxfId="25"/>
-    <tableColumn id="6" name="publisher notes" dataDxfId="24"/>
+    <tableColumn id="1" name="ID" dataDxfId="32"/>
+    <tableColumn id="2" name="Document ID" dataDxfId="31"/>
+    <tableColumn id="3" name="Document Version" dataDxfId="30"/>
+    <tableColumn id="4" name="Notes" dataDxfId="29"/>
+    <tableColumn id="5" name="Reviewer Name" dataDxfId="28"/>
+    <tableColumn id="6" name="publisher notes" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table1316" displayName="Table1316" ref="A3:F5" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table1316" displayName="Table1316" ref="A3:F5" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
   <autoFilter ref="A3:F5"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="ID" dataDxfId="21"/>
-    <tableColumn id="2" name="Document ID" dataDxfId="20"/>
-    <tableColumn id="3" name="Document Version" dataDxfId="19"/>
-    <tableColumn id="4" name="Notes" dataDxfId="18"/>
-    <tableColumn id="5" name="Reviewer Name" dataDxfId="17"/>
-    <tableColumn id="6" name="publisher notes" dataDxfId="16"/>
+    <tableColumn id="1" name="ID" dataDxfId="24"/>
+    <tableColumn id="2" name="Document ID" dataDxfId="23"/>
+    <tableColumn id="3" name="Document Version" dataDxfId="22"/>
+    <tableColumn id="4" name="Notes" dataDxfId="21"/>
+    <tableColumn id="5" name="Reviewer Name" dataDxfId="20"/>
+    <tableColumn id="6" name="publisher notes" dataDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Table1317" displayName="Table1317" ref="A3:F5" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Table1317" displayName="Table1317" ref="A3:F5" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
   <autoFilter ref="A3:F5"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="ID" dataDxfId="13"/>
-    <tableColumn id="2" name="Document ID" dataDxfId="12"/>
-    <tableColumn id="3" name="Document Version" dataDxfId="11"/>
-    <tableColumn id="4" name="Notes" dataDxfId="10"/>
-    <tableColumn id="5" name="Reviewer Name" dataDxfId="9"/>
-    <tableColumn id="6" name="publisher notes" dataDxfId="8"/>
+    <tableColumn id="1" name="ID" dataDxfId="16"/>
+    <tableColumn id="2" name="Document ID" dataDxfId="15"/>
+    <tableColumn id="3" name="Document Version" dataDxfId="14"/>
+    <tableColumn id="4" name="Notes" dataDxfId="13"/>
+    <tableColumn id="5" name="Reviewer Name" dataDxfId="12"/>
+    <tableColumn id="6" name="publisher notes" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table13174" displayName="Table13174" ref="A3:F11" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A3:F11"/>
-  <tableColumns count="6">
-    <tableColumn id="1" name="ID" dataDxfId="5"/>
-    <tableColumn id="2" name="Document ID" dataDxfId="4"/>
-    <tableColumn id="3" name="Document Version" dataDxfId="3"/>
-    <tableColumn id="4" name="Notes" dataDxfId="2"/>
-    <tableColumn id="5" name="Reviewer Name" dataDxfId="1"/>
-    <tableColumn id="6" name="publisher notes" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table13174" displayName="Table13174" ref="A3:I11" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="A3:I11"/>
+  <tableColumns count="9">
+    <tableColumn id="1" name="ID" dataDxfId="8"/>
+    <tableColumn id="2" name="Document ID" dataDxfId="7"/>
+    <tableColumn id="3" name="Document Version" dataDxfId="6"/>
+    <tableColumn id="4" name="Notes" dataDxfId="5"/>
+    <tableColumn id="5" name="Reviewer Name" dataDxfId="4"/>
+    <tableColumn id="9" name="Status" dataDxfId="0"/>
+    <tableColumn id="6" name="publisher notes" dataDxfId="3"/>
+    <tableColumn id="7" name="Date of finding" dataDxfId="2"/>
+    <tableColumn id="8" name="Date of Solving" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table133" displayName="Table133" ref="A3:F5" totalsRowShown="0" headerRowDxfId="119" dataDxfId="118">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table133" displayName="Table133" ref="A3:F5" totalsRowShown="0" headerRowDxfId="122" dataDxfId="121">
   <autoFilter ref="A3:F5"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="ID" dataDxfId="117"/>
-    <tableColumn id="2" name="Document ID" dataDxfId="116"/>
-    <tableColumn id="3" name="Document Version" dataDxfId="115"/>
-    <tableColumn id="4" name="Notes" dataDxfId="114"/>
-    <tableColumn id="5" name="Reviewer Name" dataDxfId="113"/>
-    <tableColumn id="6" name="publisher notes" dataDxfId="112"/>
+    <tableColumn id="1" name="ID" dataDxfId="120"/>
+    <tableColumn id="2" name="Document ID" dataDxfId="119"/>
+    <tableColumn id="3" name="Document Version" dataDxfId="118"/>
+    <tableColumn id="4" name="Notes" dataDxfId="117"/>
+    <tableColumn id="5" name="Reviewer Name" dataDxfId="116"/>
+    <tableColumn id="6" name="publisher notes" dataDxfId="115"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table135" displayName="Table135" ref="A3:F5" totalsRowShown="0" headerRowDxfId="111" dataDxfId="110">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table135" displayName="Table135" ref="A3:F5" totalsRowShown="0" headerRowDxfId="114" dataDxfId="113">
   <autoFilter ref="A3:F5"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="ID" dataDxfId="109"/>
-    <tableColumn id="2" name="Document ID" dataDxfId="108"/>
-    <tableColumn id="3" name="Document Version" dataDxfId="107"/>
-    <tableColumn id="4" name="Notes" dataDxfId="106"/>
-    <tableColumn id="5" name="Reviewer Name" dataDxfId="105"/>
-    <tableColumn id="6" name="publisher notes" dataDxfId="104"/>
+    <tableColumn id="1" name="ID" dataDxfId="112"/>
+    <tableColumn id="2" name="Document ID" dataDxfId="111"/>
+    <tableColumn id="3" name="Document Version" dataDxfId="110"/>
+    <tableColumn id="4" name="Notes" dataDxfId="109"/>
+    <tableColumn id="5" name="Reviewer Name" dataDxfId="108"/>
+    <tableColumn id="6" name="publisher notes" dataDxfId="107"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table136" displayName="Table136" ref="A3:F5" totalsRowShown="0" headerRowDxfId="103" dataDxfId="102">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table136" displayName="Table136" ref="A3:F5" totalsRowShown="0" headerRowDxfId="106" dataDxfId="105">
   <autoFilter ref="A3:F5"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="ID" dataDxfId="101"/>
-    <tableColumn id="2" name="Document ID" dataDxfId="100"/>
-    <tableColumn id="3" name="Document Version" dataDxfId="99"/>
-    <tableColumn id="4" name="Notes" dataDxfId="98"/>
-    <tableColumn id="5" name="Reviewer Name" dataDxfId="97"/>
-    <tableColumn id="6" name="publisher notes" dataDxfId="96"/>
+    <tableColumn id="1" name="ID" dataDxfId="104"/>
+    <tableColumn id="2" name="Document ID" dataDxfId="103"/>
+    <tableColumn id="3" name="Document Version" dataDxfId="102"/>
+    <tableColumn id="4" name="Notes" dataDxfId="101"/>
+    <tableColumn id="5" name="Reviewer Name" dataDxfId="100"/>
+    <tableColumn id="6" name="publisher notes" dataDxfId="99"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table137" displayName="Table137" ref="A3:F5" totalsRowShown="0" headerRowDxfId="95" dataDxfId="94">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table137" displayName="Table137" ref="A3:F5" totalsRowShown="0" headerRowDxfId="98" dataDxfId="97">
   <autoFilter ref="A3:F5"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="ID" dataDxfId="93"/>
-    <tableColumn id="2" name="Document ID" dataDxfId="92"/>
-    <tableColumn id="3" name="Document Version" dataDxfId="91"/>
-    <tableColumn id="4" name="Notes" dataDxfId="90"/>
-    <tableColumn id="5" name="Reviewer Name" dataDxfId="89"/>
-    <tableColumn id="6" name="publisher notes" dataDxfId="88"/>
+    <tableColumn id="1" name="ID" dataDxfId="96"/>
+    <tableColumn id="2" name="Document ID" dataDxfId="95"/>
+    <tableColumn id="3" name="Document Version" dataDxfId="94"/>
+    <tableColumn id="4" name="Notes" dataDxfId="93"/>
+    <tableColumn id="5" name="Reviewer Name" dataDxfId="92"/>
+    <tableColumn id="6" name="publisher notes" dataDxfId="91"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table138" displayName="Table138" ref="A3:F5" totalsRowShown="0" headerRowDxfId="87" dataDxfId="86">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table138" displayName="Table138" ref="A3:F5" totalsRowShown="0" headerRowDxfId="90" dataDxfId="89">
   <autoFilter ref="A3:F5"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="ID" dataDxfId="85"/>
-    <tableColumn id="2" name="Document ID" dataDxfId="84"/>
-    <tableColumn id="3" name="Document Version" dataDxfId="83"/>
-    <tableColumn id="4" name="Notes" dataDxfId="82"/>
-    <tableColumn id="5" name="Reviewer Name" dataDxfId="81"/>
-    <tableColumn id="6" name="publisher notes" dataDxfId="80"/>
+    <tableColumn id="1" name="ID" dataDxfId="88"/>
+    <tableColumn id="2" name="Document ID" dataDxfId="87"/>
+    <tableColumn id="3" name="Document Version" dataDxfId="86"/>
+    <tableColumn id="4" name="Notes" dataDxfId="85"/>
+    <tableColumn id="5" name="Reviewer Name" dataDxfId="84"/>
+    <tableColumn id="6" name="publisher notes" dataDxfId="83"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table139" displayName="Table139" ref="A3:F5" totalsRowShown="0" headerRowDxfId="79" dataDxfId="78">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table139" displayName="Table139" ref="A3:F5" totalsRowShown="0" headerRowDxfId="82" dataDxfId="81">
   <autoFilter ref="A3:F5"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="ID" dataDxfId="77"/>
-    <tableColumn id="2" name="Document ID" dataDxfId="76"/>
-    <tableColumn id="3" name="Document Version" dataDxfId="75"/>
-    <tableColumn id="4" name="Notes" dataDxfId="74"/>
-    <tableColumn id="5" name="Reviewer Name" dataDxfId="73"/>
-    <tableColumn id="6" name="publisher notes" dataDxfId="72"/>
+    <tableColumn id="1" name="ID" dataDxfId="80"/>
+    <tableColumn id="2" name="Document ID" dataDxfId="79"/>
+    <tableColumn id="3" name="Document Version" dataDxfId="78"/>
+    <tableColumn id="4" name="Notes" dataDxfId="77"/>
+    <tableColumn id="5" name="Reviewer Name" dataDxfId="76"/>
+    <tableColumn id="6" name="publisher notes" dataDxfId="75"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table1310" displayName="Table1310" ref="A3:F5" totalsRowShown="0" headerRowDxfId="71" dataDxfId="70">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table1310" displayName="Table1310" ref="A3:F5" totalsRowShown="0" headerRowDxfId="74" dataDxfId="73">
   <autoFilter ref="A3:F5"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="ID" dataDxfId="69"/>
-    <tableColumn id="2" name="Document ID" dataDxfId="68"/>
-    <tableColumn id="3" name="Document Version" dataDxfId="67"/>
-    <tableColumn id="4" name="Notes" dataDxfId="66"/>
-    <tableColumn id="5" name="Reviewer Name" dataDxfId="65"/>
-    <tableColumn id="6" name="publisher notes" dataDxfId="64"/>
+    <tableColumn id="1" name="ID" dataDxfId="72"/>
+    <tableColumn id="2" name="Document ID" dataDxfId="71"/>
+    <tableColumn id="3" name="Document Version" dataDxfId="70"/>
+    <tableColumn id="4" name="Notes" dataDxfId="69"/>
+    <tableColumn id="5" name="Reviewer Name" dataDxfId="68"/>
+    <tableColumn id="6" name="publisher notes" dataDxfId="67"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table1311" displayName="Table1311" ref="A3:F5" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table1311" displayName="Table1311" ref="A3:F5" totalsRowShown="0" headerRowDxfId="66" dataDxfId="65">
   <autoFilter ref="A3:F5"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="ID" dataDxfId="61"/>
-    <tableColumn id="2" name="Document ID" dataDxfId="60"/>
-    <tableColumn id="3" name="Document Version" dataDxfId="59"/>
-    <tableColumn id="4" name="Notes" dataDxfId="58"/>
-    <tableColumn id="5" name="Reviewer Name" dataDxfId="57"/>
-    <tableColumn id="6" name="publisher notes" dataDxfId="56"/>
+    <tableColumn id="1" name="ID" dataDxfId="64"/>
+    <tableColumn id="2" name="Document ID" dataDxfId="63"/>
+    <tableColumn id="3" name="Document Version" dataDxfId="62"/>
+    <tableColumn id="4" name="Notes" dataDxfId="61"/>
+    <tableColumn id="5" name="Reviewer Name" dataDxfId="60"/>
+    <tableColumn id="6" name="publisher notes" dataDxfId="59"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1073,16 +1100,16 @@
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.140625" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" customWidth="1"/>
-    <col min="4" max="4" width="39.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" customWidth="1"/>
+    <col min="3" max="3" width="22.44140625" customWidth="1"/>
+    <col min="4" max="4" width="39.44140625" customWidth="1"/>
     <col min="5" max="5" width="22" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1102,7 +1129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1110,7 +1137,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1134,9 +1161,9 @@
       <selection activeCell="A3" sqref="A3:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1156,7 +1183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1164,7 +1191,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1188,9 +1215,9 @@
       <selection activeCell="A3" sqref="A3:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1210,7 +1237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1218,7 +1245,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1242,9 +1269,9 @@
       <selection activeCell="A3" sqref="A3:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1264,7 +1291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1272,7 +1299,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1296,9 +1323,9 @@
       <selection activeCell="A3" sqref="A3:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1318,7 +1345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1326,7 +1353,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1350,9 +1377,9 @@
       <selection activeCell="A3" sqref="A3:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1372,7 +1399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1380,7 +1407,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1404,9 +1431,9 @@
       <selection activeCell="A3" sqref="A3:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1426,7 +1453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1434,7 +1461,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1452,23 +1479,25 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:F11"/>
+  <dimension ref="A3:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="2" max="2" width="30.28515625" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" customWidth="1"/>
-    <col min="4" max="4" width="34.28515625" customWidth="1"/>
-    <col min="5" max="5" width="24.140625" customWidth="1"/>
-    <col min="6" max="6" width="24.5703125" customWidth="1"/>
+    <col min="1" max="1" width="16.5546875" customWidth="1"/>
+    <col min="2" max="2" width="30.33203125" customWidth="1"/>
+    <col min="3" max="3" width="24.109375" customWidth="1"/>
+    <col min="4" max="4" width="34.33203125" customWidth="1"/>
+    <col min="5" max="6" width="24.109375" customWidth="1"/>
+    <col min="7" max="7" width="24.5546875" customWidth="1"/>
+    <col min="8" max="8" width="25.33203125" customWidth="1"/>
+    <col min="9" max="9" width="16.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1485,10 +1514,19 @@
         <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="H3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1504,9 +1542,18 @@
       <c r="E4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="F4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="1"/>
+      <c r="H4" s="5">
+        <v>43713</v>
+      </c>
+      <c r="I4" s="5">
+        <v>43743</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1522,9 +1569,18 @@
       <c r="E5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="1"/>
-    </row>
-    <row r="6" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="F5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5" s="1"/>
+      <c r="H5" s="5">
+        <v>43713</v>
+      </c>
+      <c r="I5" s="5">
+        <v>43743</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -1540,9 +1596,18 @@
       <c r="E6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="F6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G6" s="1"/>
+      <c r="H6" s="5">
+        <v>43713</v>
+      </c>
+      <c r="I6" s="5">
+        <v>43743</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -1558,39 +1623,60 @@
       <c r="E7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="1"/>
+      <c r="H7" s="5">
+        <v>43713</v>
+      </c>
+      <c r="I7" s="5">
+        <v>43743</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="2"/>
       <c r="E8" s="1"/>
       <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="2"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="2"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="2"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1608,9 +1694,9 @@
       <selection activeCell="A3" sqref="A3:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1630,7 +1716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1638,7 +1724,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1662,9 +1748,9 @@
       <selection activeCell="A3" sqref="A3:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1684,7 +1770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1692,7 +1778,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1716,9 +1802,9 @@
       <selection activeCell="A3" sqref="A3:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1738,7 +1824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1746,7 +1832,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1770,9 +1856,9 @@
       <selection activeCell="A3" sqref="A3:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1792,7 +1878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1800,7 +1886,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1824,9 +1910,9 @@
       <selection activeCell="A3" sqref="A3:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1846,7 +1932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1854,7 +1940,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1878,9 +1964,9 @@
       <selection activeCell="A3" sqref="A3:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1900,7 +1986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1908,7 +1994,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1932,9 +2018,9 @@
       <selection activeCell="A3" sqref="A3:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1954,7 +2040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -1962,7 +2048,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -1986,9 +2072,9 @@
       <selection activeCell="A3" sqref="A3:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -2008,7 +2094,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -2016,7 +2102,7 @@
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>

--- a/Documents/Foodies_PR.xlsx
+++ b/Documents/Foodies_PR.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" firstSheet="10" activeTab="15"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="RTM" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="50">
   <si>
     <t>publisher notes</t>
   </si>
@@ -95,13 +95,105 @@
   </si>
   <si>
     <t>Fixed</t>
+  </si>
+  <si>
+    <t>RISK ID</t>
+  </si>
+  <si>
+    <t>Revised on</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Reviewed By</t>
+  </si>
+  <si>
+    <t>Risk_004</t>
+  </si>
+  <si>
+    <t>29/4/2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lack of JavaScript, bootstrap knowledge by 
+most of the team </t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Lack of development knowledge by 
+most of the team </t>
+  </si>
+  <si>
+    <t>Aya Hamdy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Work on developing the team skills during 
+requirement analysis and design phase . </t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Work on team skills development during 
+requirement analysis and design phase . </t>
+  </si>
+  <si>
+    <t>Risk_006</t>
+  </si>
+  <si>
+    <t>all team members must be involved in change process
+and any and all changes must be documented and 
+uploaded to the CM tool.</t>
+  </si>
+  <si>
+    <t>* all team members must be involved in any change process, all changes must be documented and uploaded to the CM tool.</t>
+  </si>
+  <si>
+    <t>Risk_007</t>
+  </si>
+  <si>
+    <t>Use free web hosting for 3 months then 
+Transfer to one of Enterprise track to get the best 
+web hosting services .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* I think as a learning project 3 months is enough for free hosting, if we host our web application  </t>
+  </si>
+  <si>
+    <t>Risk_009</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Integration of tasks </t>
+  </si>
+  <si>
+    <t>* this is a high impact because our lack of development with web backend languages, so the integration will be high risky to our team</t>
+  </si>
+  <si>
+    <t>Risk_010</t>
+  </si>
+  <si>
+    <t>* duplicate with Risk_009</t>
+  </si>
+  <si>
+    <t>Risk_011</t>
+  </si>
+  <si>
+    <t>Delays to stakeholder approvals impact the project</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* I think it has a high impact beacuase we send to our customer early and he delay with the answer </t>
+  </si>
+  <si>
+    <t xml:space="preserve">All Risks </t>
+  </si>
+  <si>
+    <t>ALL risks shoud be prioritized.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,16 +207,45 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -132,11 +253,46 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -153,46 +309,57 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="131">
+  <dxfs count="123">
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -565,36 +732,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table13" displayName="Table13" ref="A3:F5" totalsRowShown="0" headerRowDxfId="130" dataDxfId="129">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table13" displayName="Table13" ref="A3:F5" totalsRowShown="0" headerRowDxfId="122" dataDxfId="121">
   <autoFilter ref="A3:F5"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="ID" dataDxfId="128"/>
-    <tableColumn id="2" name="Document ID" dataDxfId="127"/>
-    <tableColumn id="3" name="Document Version" dataDxfId="126"/>
-    <tableColumn id="4" name="Notes" dataDxfId="125"/>
-    <tableColumn id="5" name="Reviewer Name" dataDxfId="124"/>
-    <tableColumn id="6" name="publisher notes" dataDxfId="123"/>
+    <tableColumn id="1" name="ID" dataDxfId="120"/>
+    <tableColumn id="2" name="Document ID" dataDxfId="119"/>
+    <tableColumn id="3" name="Document Version" dataDxfId="118"/>
+    <tableColumn id="4" name="Notes" dataDxfId="117"/>
+    <tableColumn id="5" name="Reviewer Name" dataDxfId="116"/>
+    <tableColumn id="6" name="publisher notes" dataDxfId="115"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table1312" displayName="Table1312" ref="A3:F5" totalsRowShown="0" headerRowDxfId="58" dataDxfId="57">
-  <autoFilter ref="A3:F5"/>
-  <tableColumns count="6">
-    <tableColumn id="1" name="ID" dataDxfId="56"/>
-    <tableColumn id="2" name="Document ID" dataDxfId="55"/>
-    <tableColumn id="3" name="Document Version" dataDxfId="54"/>
-    <tableColumn id="4" name="Notes" dataDxfId="53"/>
-    <tableColumn id="5" name="Reviewer Name" dataDxfId="52"/>
-    <tableColumn id="6" name="publisher notes" dataDxfId="51"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table1313" displayName="Table1313" ref="A3:F5" totalsRowShown="0" headerRowDxfId="50" dataDxfId="49">
   <autoFilter ref="A3:F5"/>
   <tableColumns count="6">
@@ -609,7 +761,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table1314" displayName="Table1314" ref="A3:F5" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41">
   <autoFilter ref="A3:F5"/>
   <tableColumns count="6">
@@ -624,7 +776,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table1315" displayName="Table1315" ref="A3:F5" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
   <autoFilter ref="A3:F5"/>
   <tableColumns count="6">
@@ -639,7 +791,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table1316" displayName="Table1316" ref="A3:F5" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
   <autoFilter ref="A3:F5"/>
   <tableColumns count="6">
@@ -654,7 +806,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Table1317" displayName="Table1317" ref="A3:F5" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
   <autoFilter ref="A3:F5"/>
   <tableColumns count="6">
@@ -669,7 +821,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table13174" displayName="Table13174" ref="A3:I11" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
   <autoFilter ref="A3:I11"/>
   <tableColumns count="9">
@@ -678,32 +830,17 @@
     <tableColumn id="3" name="Document Version" dataDxfId="6"/>
     <tableColumn id="4" name="Notes" dataDxfId="5"/>
     <tableColumn id="5" name="Reviewer Name" dataDxfId="4"/>
-    <tableColumn id="9" name="Status" dataDxfId="0"/>
-    <tableColumn id="6" name="publisher notes" dataDxfId="3"/>
-    <tableColumn id="7" name="Date of finding" dataDxfId="2"/>
-    <tableColumn id="8" name="Date of Solving" dataDxfId="1"/>
+    <tableColumn id="9" name="Status" dataDxfId="3"/>
+    <tableColumn id="6" name="publisher notes" dataDxfId="2"/>
+    <tableColumn id="7" name="Date of finding" dataDxfId="1"/>
+    <tableColumn id="8" name="Date of Solving" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table133" displayName="Table133" ref="A3:F5" totalsRowShown="0" headerRowDxfId="122" dataDxfId="121">
-  <autoFilter ref="A3:F5"/>
-  <tableColumns count="6">
-    <tableColumn id="1" name="ID" dataDxfId="120"/>
-    <tableColumn id="2" name="Document ID" dataDxfId="119"/>
-    <tableColumn id="3" name="Document Version" dataDxfId="118"/>
-    <tableColumn id="4" name="Notes" dataDxfId="117"/>
-    <tableColumn id="5" name="Reviewer Name" dataDxfId="116"/>
-    <tableColumn id="6" name="publisher notes" dataDxfId="115"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table135" displayName="Table135" ref="A3:F5" totalsRowShown="0" headerRowDxfId="114" dataDxfId="113">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table133" displayName="Table133" ref="A3:F5" totalsRowShown="0" headerRowDxfId="114" dataDxfId="113">
   <autoFilter ref="A3:F5"/>
   <tableColumns count="6">
     <tableColumn id="1" name="ID" dataDxfId="112"/>
@@ -717,8 +854,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table136" displayName="Table136" ref="A3:F5" totalsRowShown="0" headerRowDxfId="106" dataDxfId="105">
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table135" displayName="Table135" ref="A3:F5" totalsRowShown="0" headerRowDxfId="106" dataDxfId="105">
   <autoFilter ref="A3:F5"/>
   <tableColumns count="6">
     <tableColumn id="1" name="ID" dataDxfId="104"/>
@@ -732,7 +869,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table137" displayName="Table137" ref="A3:F5" totalsRowShown="0" headerRowDxfId="98" dataDxfId="97">
   <autoFilter ref="A3:F5"/>
   <tableColumns count="6">
@@ -747,7 +884,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table138" displayName="Table138" ref="A3:F5" totalsRowShown="0" headerRowDxfId="90" dataDxfId="89">
   <autoFilter ref="A3:F5"/>
   <tableColumns count="6">
@@ -762,7 +899,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table139" displayName="Table139" ref="A3:F5" totalsRowShown="0" headerRowDxfId="82" dataDxfId="81">
   <autoFilter ref="A3:F5"/>
   <tableColumns count="6">
@@ -777,7 +914,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table1310" displayName="Table1310" ref="A3:F5" totalsRowShown="0" headerRowDxfId="74" dataDxfId="73">
   <autoFilter ref="A3:F5"/>
   <tableColumns count="6">
@@ -792,7 +929,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table1311" displayName="Table1311" ref="A3:F5" totalsRowShown="0" headerRowDxfId="66" dataDxfId="65">
   <autoFilter ref="A3:F5"/>
   <tableColumns count="6">
@@ -802,6 +939,21 @@
     <tableColumn id="4" name="Notes" dataDxfId="61"/>
     <tableColumn id="5" name="Reviewer Name" dataDxfId="60"/>
     <tableColumn id="6" name="publisher notes" dataDxfId="59"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table1312" displayName="Table1312" ref="A3:F5" totalsRowShown="0" headerRowDxfId="58" dataDxfId="57">
+  <autoFilter ref="A3:F5"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="ID" dataDxfId="56"/>
+    <tableColumn id="2" name="Document ID" dataDxfId="55"/>
+    <tableColumn id="3" name="Document Version" dataDxfId="54"/>
+    <tableColumn id="4" name="Notes" dataDxfId="53"/>
+    <tableColumn id="5" name="Reviewer Name" dataDxfId="52"/>
+    <tableColumn id="6" name="publisher notes" dataDxfId="51"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1481,7 +1633,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
@@ -1796,55 +1948,203 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:F5"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.88671875" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="3" max="3" width="23" customWidth="1"/>
+    <col min="4" max="4" width="30.6640625" customWidth="1"/>
+    <col min="5" max="5" width="26.6640625" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D3" s="2" t="s">
+    <row r="1" spans="1:6" ht="17.399999999999999" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+      <c r="F1" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="150" x14ac:dyDescent="0.3">
+      <c r="A2" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="195" x14ac:dyDescent="0.3">
+      <c r="A3" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="300" x14ac:dyDescent="0.3">
+      <c r="A4" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="9">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="270" x14ac:dyDescent="0.3">
+      <c r="A5" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="13">
+        <v>43501</v>
+      </c>
+      <c r="C5" s="14">
+        <v>1.2</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="315" x14ac:dyDescent="0.3">
+      <c r="A6" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="13">
+        <v>43501</v>
+      </c>
+      <c r="C6" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="75.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="13">
+        <v>43501</v>
+      </c>
+      <c r="C7" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="210.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="13">
+        <v>43501</v>
+      </c>
+      <c r="C8" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B9" s="17">
+        <v>43501</v>
+      </c>
+      <c r="C9" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="18" t="s">
+        <v>31</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Documents/Foodies_PR.xlsx
+++ b/Documents/Foodies_PR.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="10" activeTab="15"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="RTM" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="98">
   <si>
     <t>publisher notes</t>
   </si>
@@ -83,6 +83,253 @@
   </si>
   <si>
     <t>step number 1 from steps : user can show loyalty points from user account page</t>
+  </si>
+  <si>
+    <t>SRS-ID</t>
+  </si>
+  <si>
+    <t>Foodies_PR_001</t>
+  </si>
+  <si>
+    <t>Foodies_SRS_003</t>
+  </si>
+  <si>
+    <t>V1.2</t>
+  </si>
+  <si>
+    <t>this requirment doesn't match to any CRS , it's assumtion</t>
+  </si>
+  <si>
+    <t>Hossam Galal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It's not assumtion </t>
+  </si>
+  <si>
+    <t>Foodies_PR_002</t>
+  </si>
+  <si>
+    <t>Foodies_SRS_005</t>
+  </si>
+  <si>
+    <t>the system's language shall accept english and franko</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>Foodies_PR_003</t>
+  </si>
+  <si>
+    <t>Foodies_SRS_008</t>
+  </si>
+  <si>
+    <t>this requirment is dublicated referring to Foodies_SRS_001</t>
+  </si>
+  <si>
+    <t>Foodies_PR_004</t>
+  </si>
+  <si>
+    <t>Foodies_SRS_009</t>
+  </si>
+  <si>
+    <t>Foodies_PR_005</t>
+  </si>
+  <si>
+    <t>Foodies_SRS_010</t>
+  </si>
+  <si>
+    <t xml:space="preserve">it's standard </t>
+  </si>
+  <si>
+    <t>Foodies_PR_006</t>
+  </si>
+  <si>
+    <t>Foodies_SRS_011</t>
+  </si>
+  <si>
+    <t>please specify which model you are "registeration or login screen"</t>
+  </si>
+  <si>
+    <t>Foodies_PR_007</t>
+  </si>
+  <si>
+    <t>Foodies_SRS_012</t>
+  </si>
+  <si>
+    <t>Foodies_PR_008</t>
+  </si>
+  <si>
+    <t>Foodies_SRS_013</t>
+  </si>
+  <si>
+    <t>If the user press login without filling the email &amp; Password fields
+the system behaviour shall do nothing</t>
+  </si>
+  <si>
+    <t>Foodies_PR_009</t>
+  </si>
+  <si>
+    <t>Foodies_SRS_014</t>
+  </si>
+  <si>
+    <t>the confirmation password field shall match the password field</t>
+  </si>
+  <si>
+    <t>Foodies_PR_010</t>
+  </si>
+  <si>
+    <t>Foodies_SRS_016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">this requirment is dublicated </t>
+  </si>
+  <si>
+    <t>its's not dup. It's explained what the register now link do</t>
+  </si>
+  <si>
+    <t>Foodies_PR_011</t>
+  </si>
+  <si>
+    <t>Foodies_SRS_017</t>
+  </si>
+  <si>
+    <t>please specify which page you are !</t>
+  </si>
+  <si>
+    <t>Foodies_PR_012</t>
+  </si>
+  <si>
+    <t>Foodies_SRS_018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">the user can accept or reject the system access for the user location </t>
+  </si>
+  <si>
+    <t>Foodies_PR_013</t>
+  </si>
+  <si>
+    <t>Foodies_SRS_019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">after the user press the login page the system shall 
+navigate to the home page </t>
+  </si>
+  <si>
+    <t>Foodies_PR_014</t>
+  </si>
+  <si>
+    <t>Foodies_SRS_021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The system should get customer 
+location in range of  5KM away from restaurants  </t>
+  </si>
+  <si>
+    <t>Foodies_PR_015</t>
+  </si>
+  <si>
+    <t>Foodies_SRS_022</t>
+  </si>
+  <si>
+    <t>The Nearby 5 restaurants shall be sorted alphabetical</t>
+  </si>
+  <si>
+    <t>Foodies_PR_016</t>
+  </si>
+  <si>
+    <t>Foodies_SRS_023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">language mistake "restaurants should contains" should be "restaurants shall contain" </t>
+  </si>
+  <si>
+    <t>Foodies_PR_017</t>
+  </si>
+  <si>
+    <t>Foodies_SRS_024</t>
+  </si>
+  <si>
+    <t>SRS should be Compatible with SIQ_012</t>
+  </si>
+  <si>
+    <t>Foodies_PR_018</t>
+  </si>
+  <si>
+    <t>Foodies_SRS_033</t>
+  </si>
+  <si>
+    <t>SRS should be Compatible with SIQ_015</t>
+  </si>
+  <si>
+    <t>Foodies_PR_019</t>
+  </si>
+  <si>
+    <t>Foodies_SRS_034</t>
+  </si>
+  <si>
+    <t>this requirment is dublicated referring to Foodies_SRS_033</t>
+  </si>
+  <si>
+    <t xml:space="preserve">it's not a duplicate </t>
+  </si>
+  <si>
+    <t>Foodies_PR_020</t>
+  </si>
+  <si>
+    <t>Foodies_SRS_036</t>
+  </si>
+  <si>
+    <t xml:space="preserve">i found this in description of the project by customer </t>
+  </si>
+  <si>
+    <t>Foodies_PR_021</t>
+  </si>
+  <si>
+    <t>Foodies_SRS_037</t>
+  </si>
+  <si>
+    <t>Foodies_PR_022</t>
+  </si>
+  <si>
+    <t>Foodies_SRS_038</t>
+  </si>
+  <si>
+    <t>you can ask in SIQ</t>
+  </si>
+  <si>
+    <t>Foodies_PR_023</t>
+  </si>
+  <si>
+    <t>Foodies_SRS_041</t>
+  </si>
+  <si>
+    <t>SRS should be Compatible with SIQ_017</t>
+  </si>
+  <si>
+    <t>it's completely different</t>
+  </si>
+  <si>
+    <t>Foodies_SRS_042</t>
+  </si>
+  <si>
+    <t>this SRS should ddivided to  two SRS</t>
+  </si>
+  <si>
+    <t>Foodies_PR_024</t>
+  </si>
+  <si>
+    <t>Foodies_SRS_044</t>
+  </si>
+  <si>
+    <t>this requirment is dublicated referring to Foodies_SRS_043</t>
+  </si>
+  <si>
+    <t>strong password replied 2 times .
+strong password shall be :- "not should"
+1- 2 Capital letters .
+2- 2 Special Characters .
+3- it's length Minimum [8] character  Maximum [10] character . "not his"</t>
   </si>
 </sst>
 </file>
@@ -144,28 +391,28 @@
   </cellStyles>
   <dxfs count="128">
     <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -556,7 +803,22 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table1312" displayName="Table1312" ref="A3:F5" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table1312" displayName="Table1312" ref="A3:F5" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62">
+  <autoFilter ref="A3:F5"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="ID" dataDxfId="61"/>
+    <tableColumn id="2" name="Document ID" dataDxfId="60"/>
+    <tableColumn id="3" name="Document Version" dataDxfId="59"/>
+    <tableColumn id="4" name="Notes" dataDxfId="58"/>
+    <tableColumn id="5" name="Reviewer Name" dataDxfId="57"/>
+    <tableColumn id="6" name="publisher notes" dataDxfId="56"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table1313" displayName="Table1313" ref="A3:F5" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54">
   <autoFilter ref="A3:F5"/>
   <tableColumns count="6">
     <tableColumn id="1" name="ID" dataDxfId="53"/>
@@ -570,8 +832,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table1313" displayName="Table1313" ref="A3:F5" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table1314" displayName="Table1314" ref="A3:F5" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
   <autoFilter ref="A3:F5"/>
   <tableColumns count="6">
     <tableColumn id="1" name="ID" dataDxfId="45"/>
@@ -585,8 +847,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table1314" displayName="Table1314" ref="A3:F5" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table1315" displayName="Table1315" ref="A3:F5" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
   <autoFilter ref="A3:F5"/>
   <tableColumns count="6">
     <tableColumn id="1" name="ID" dataDxfId="37"/>
@@ -600,8 +862,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table1315" displayName="Table1315" ref="A3:F5" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table1316" displayName="Table1316" ref="A3:F5" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
   <autoFilter ref="A3:F5"/>
   <tableColumns count="6">
     <tableColumn id="1" name="ID" dataDxfId="29"/>
@@ -615,8 +877,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table1316" displayName="Table1316" ref="A3:F5" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Table1317" displayName="Table1317" ref="A3:F5" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
   <autoFilter ref="A3:F5"/>
   <tableColumns count="6">
     <tableColumn id="1" name="ID" dataDxfId="21"/>
@@ -630,9 +892,9 @@
 </table>
 </file>
 
-<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Table1317" displayName="Table1317" ref="A3:F5" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
-  <autoFilter ref="A3:F5"/>
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table13174" displayName="Table13174" ref="A3:F11" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+  <autoFilter ref="A3:F11"/>
   <tableColumns count="6">
     <tableColumn id="1" name="ID" dataDxfId="13"/>
     <tableColumn id="2" name="Document ID" dataDxfId="12"/>
@@ -645,23 +907,23 @@
 </table>
 </file>
 
-<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table13174" displayName="Table13174" ref="A3:F11" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A3:F11"/>
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table1" displayName="Table1" ref="A3:F29" totalsRowShown="0" headerRowDxfId="7" dataDxfId="0">
+  <autoFilter ref="A3:F29"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="ID" dataDxfId="5"/>
-    <tableColumn id="2" name="Document ID" dataDxfId="4"/>
-    <tableColumn id="3" name="Document Version" dataDxfId="3"/>
-    <tableColumn id="4" name="Notes" dataDxfId="2"/>
-    <tableColumn id="5" name="Reviewer Name" dataDxfId="1"/>
-    <tableColumn id="6" name="publisher notes" dataDxfId="0"/>
+    <tableColumn id="1" name="ID" dataDxfId="6"/>
+    <tableColumn id="2" name="SRS-ID" dataDxfId="5"/>
+    <tableColumn id="3" name="Document Version" dataDxfId="4"/>
+    <tableColumn id="4" name="Notes" dataDxfId="3"/>
+    <tableColumn id="5" name="Reviewer Name" dataDxfId="2"/>
+    <tableColumn id="6" name="publisher notes" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table133" displayName="Table133" ref="A3:F5" totalsRowShown="0" headerRowDxfId="119" dataDxfId="118">
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table135" displayName="Table135" ref="A3:F5" totalsRowShown="0" headerRowDxfId="119" dataDxfId="118">
   <autoFilter ref="A3:F5"/>
   <tableColumns count="6">
     <tableColumn id="1" name="ID" dataDxfId="117"/>
@@ -675,8 +937,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table135" displayName="Table135" ref="A3:F5" totalsRowShown="0" headerRowDxfId="111" dataDxfId="110">
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table136" displayName="Table136" ref="A3:F5" totalsRowShown="0" headerRowDxfId="111" dataDxfId="110">
   <autoFilter ref="A3:F5"/>
   <tableColumns count="6">
     <tableColumn id="1" name="ID" dataDxfId="109"/>
@@ -690,8 +952,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table136" displayName="Table136" ref="A3:F5" totalsRowShown="0" headerRowDxfId="103" dataDxfId="102">
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table137" displayName="Table137" ref="A3:F5" totalsRowShown="0" headerRowDxfId="103" dataDxfId="102">
   <autoFilter ref="A3:F5"/>
   <tableColumns count="6">
     <tableColumn id="1" name="ID" dataDxfId="101"/>
@@ -705,8 +967,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table137" displayName="Table137" ref="A3:F5" totalsRowShown="0" headerRowDxfId="95" dataDxfId="94">
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table138" displayName="Table138" ref="A3:F5" totalsRowShown="0" headerRowDxfId="95" dataDxfId="94">
   <autoFilter ref="A3:F5"/>
   <tableColumns count="6">
     <tableColumn id="1" name="ID" dataDxfId="93"/>
@@ -720,8 +982,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table138" displayName="Table138" ref="A3:F5" totalsRowShown="0" headerRowDxfId="87" dataDxfId="86">
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table139" displayName="Table139" ref="A3:F5" totalsRowShown="0" headerRowDxfId="87" dataDxfId="86">
   <autoFilter ref="A3:F5"/>
   <tableColumns count="6">
     <tableColumn id="1" name="ID" dataDxfId="85"/>
@@ -735,8 +997,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table139" displayName="Table139" ref="A3:F5" totalsRowShown="0" headerRowDxfId="79" dataDxfId="78">
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table1310" displayName="Table1310" ref="A3:F5" totalsRowShown="0" headerRowDxfId="79" dataDxfId="78">
   <autoFilter ref="A3:F5"/>
   <tableColumns count="6">
     <tableColumn id="1" name="ID" dataDxfId="77"/>
@@ -750,8 +1012,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table1310" displayName="Table1310" ref="A3:F5" totalsRowShown="0" headerRowDxfId="71" dataDxfId="70">
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table1311" displayName="Table1311" ref="A3:F5" totalsRowShown="0" headerRowDxfId="71" dataDxfId="70">
   <autoFilter ref="A3:F5"/>
   <tableColumns count="6">
     <tableColumn id="1" name="ID" dataDxfId="69"/>
@@ -760,21 +1022,6 @@
     <tableColumn id="4" name="Notes" dataDxfId="66"/>
     <tableColumn id="5" name="Reviewer Name" dataDxfId="65"/>
     <tableColumn id="6" name="publisher notes" dataDxfId="64"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table1311" displayName="Table1311" ref="A3:F5" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62">
-  <autoFilter ref="A3:F5"/>
-  <tableColumns count="6">
-    <tableColumn id="1" name="ID" dataDxfId="61"/>
-    <tableColumn id="2" name="Document ID" dataDxfId="60"/>
-    <tableColumn id="3" name="Document Version" dataDxfId="59"/>
-    <tableColumn id="4" name="Notes" dataDxfId="58"/>
-    <tableColumn id="5" name="Reviewer Name" dataDxfId="57"/>
-    <tableColumn id="6" name="publisher notes" dataDxfId="56"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1239,7 +1486,7 @@
   <dimension ref="A3:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:F5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1454,7 +1701,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -1602,49 +1849,547 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:F5"/>
+  <dimension ref="A3:F29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:F5"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.5703125" customWidth="1"/>
+    <col min="2" max="2" width="29.5703125" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" customWidth="1"/>
+    <col min="4" max="4" width="39" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" customWidth="1"/>
+    <col min="6" max="6" width="55.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="120" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/Foodies_PR.xlsx
+++ b/Documents/Foodies_PR.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="RTM" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="110">
   <si>
     <t>publisher notes</t>
   </si>
@@ -331,11 +331,47 @@
 2- 2 Special Characters .
 3- it's length Minimum [8] character  Maximum [10] character . "not his"</t>
   </si>
+  <si>
+    <t>Foodies_PR_025</t>
+  </si>
+  <si>
+    <t>Foodies_SRS_001</t>
+  </si>
+  <si>
+    <t>v1.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">replace submit button with create account button </t>
+  </si>
+  <si>
+    <t>Aya hamdy</t>
+  </si>
+  <si>
+    <t>Foodies_PR_026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edit all English and grammer mistakes </t>
+  </si>
+  <si>
+    <t>Foodies_PR_027</t>
+  </si>
+  <si>
+    <t>Foodies_PR_028</t>
+  </si>
+  <si>
+    <t>Foodies_SRS_*</t>
+  </si>
+  <si>
+    <t>Foodies_SRS_043</t>
+  </si>
+  <si>
+    <t>redundant with Foodies_SRS_025</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -351,15 +387,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -367,11 +409,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -385,33 +455,193 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="128">
     <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -421,6 +651,21 @@
       <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -559,196 +804,28 @@
       <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -803,22 +880,7 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table1312" displayName="Table1312" ref="A3:F5" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62">
-  <autoFilter ref="A3:F5"/>
-  <tableColumns count="6">
-    <tableColumn id="1" name="ID" dataDxfId="61"/>
-    <tableColumn id="2" name="Document ID" dataDxfId="60"/>
-    <tableColumn id="3" name="Document Version" dataDxfId="59"/>
-    <tableColumn id="4" name="Notes" dataDxfId="58"/>
-    <tableColumn id="5" name="Reviewer Name" dataDxfId="57"/>
-    <tableColumn id="6" name="publisher notes" dataDxfId="56"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table1313" displayName="Table1313" ref="A3:F5" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table1312" displayName="Table1312" ref="A3:F5" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54">
   <autoFilter ref="A3:F5"/>
   <tableColumns count="6">
     <tableColumn id="1" name="ID" dataDxfId="53"/>
@@ -832,8 +894,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table1314" displayName="Table1314" ref="A3:F5" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table1313" displayName="Table1313" ref="A3:F5" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
   <autoFilter ref="A3:F5"/>
   <tableColumns count="6">
     <tableColumn id="1" name="ID" dataDxfId="45"/>
@@ -847,8 +909,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table1315" displayName="Table1315" ref="A3:F5" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table1314" displayName="Table1314" ref="A3:F5" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
   <autoFilter ref="A3:F5"/>
   <tableColumns count="6">
     <tableColumn id="1" name="ID" dataDxfId="37"/>
@@ -862,8 +924,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table1316" displayName="Table1316" ref="A3:F5" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table1315" displayName="Table1315" ref="A3:F5" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
   <autoFilter ref="A3:F5"/>
   <tableColumns count="6">
     <tableColumn id="1" name="ID" dataDxfId="29"/>
@@ -877,8 +939,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Table1317" displayName="Table1317" ref="A3:F5" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table1316" displayName="Table1316" ref="A3:F5" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
   <autoFilter ref="A3:F5"/>
   <tableColumns count="6">
     <tableColumn id="1" name="ID" dataDxfId="21"/>
@@ -892,9 +954,9 @@
 </table>
 </file>
 
-<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table13174" displayName="Table13174" ref="A3:F11" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
-  <autoFilter ref="A3:F11"/>
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Table1317" displayName="Table1317" ref="A3:F5" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+  <autoFilter ref="A3:F5"/>
   <tableColumns count="6">
     <tableColumn id="1" name="ID" dataDxfId="13"/>
     <tableColumn id="2" name="Document ID" dataDxfId="12"/>
@@ -907,27 +969,27 @@
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table1" displayName="Table1" ref="A3:F29" totalsRowShown="0" headerRowDxfId="7" dataDxfId="0">
-  <autoFilter ref="A3:F29"/>
+<file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table13174" displayName="Table13174" ref="A3:F11" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+  <autoFilter ref="A3:F11"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="ID" dataDxfId="6"/>
-    <tableColumn id="2" name="SRS-ID" dataDxfId="5"/>
-    <tableColumn id="3" name="Document Version" dataDxfId="4"/>
-    <tableColumn id="4" name="Notes" dataDxfId="3"/>
-    <tableColumn id="5" name="Reviewer Name" dataDxfId="2"/>
-    <tableColumn id="6" name="publisher notes" dataDxfId="1"/>
+    <tableColumn id="1" name="ID" dataDxfId="5"/>
+    <tableColumn id="2" name="Document ID" dataDxfId="4"/>
+    <tableColumn id="3" name="Document Version" dataDxfId="3"/>
+    <tableColumn id="4" name="Notes" dataDxfId="2"/>
+    <tableColumn id="5" name="Reviewer Name" dataDxfId="1"/>
+    <tableColumn id="6" name="publisher notes" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table135" displayName="Table135" ref="A3:F5" totalsRowShown="0" headerRowDxfId="119" dataDxfId="118">
-  <autoFilter ref="A3:F5"/>
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table1" displayName="Table1" ref="A3:F30" totalsRowShown="0" headerRowDxfId="119" dataDxfId="118">
+  <autoFilter ref="A3:F30"/>
   <tableColumns count="6">
     <tableColumn id="1" name="ID" dataDxfId="117"/>
-    <tableColumn id="2" name="Document ID" dataDxfId="116"/>
+    <tableColumn id="2" name="SRS-ID" dataDxfId="116"/>
     <tableColumn id="3" name="Document Version" dataDxfId="115"/>
     <tableColumn id="4" name="Notes" dataDxfId="114"/>
     <tableColumn id="5" name="Reviewer Name" dataDxfId="113"/>
@@ -937,8 +999,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table136" displayName="Table136" ref="A3:F5" totalsRowShown="0" headerRowDxfId="111" dataDxfId="110">
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table135" displayName="Table135" ref="A3:F5" totalsRowShown="0" headerRowDxfId="111" dataDxfId="110">
   <autoFilter ref="A3:F5"/>
   <tableColumns count="6">
     <tableColumn id="1" name="ID" dataDxfId="109"/>
@@ -952,8 +1014,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table137" displayName="Table137" ref="A3:F5" totalsRowShown="0" headerRowDxfId="103" dataDxfId="102">
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table136" displayName="Table136" ref="A3:F5" totalsRowShown="0" headerRowDxfId="103" dataDxfId="102">
   <autoFilter ref="A3:F5"/>
   <tableColumns count="6">
     <tableColumn id="1" name="ID" dataDxfId="101"/>
@@ -967,8 +1029,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table138" displayName="Table138" ref="A3:F5" totalsRowShown="0" headerRowDxfId="95" dataDxfId="94">
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table137" displayName="Table137" ref="A3:F5" totalsRowShown="0" headerRowDxfId="95" dataDxfId="94">
   <autoFilter ref="A3:F5"/>
   <tableColumns count="6">
     <tableColumn id="1" name="ID" dataDxfId="93"/>
@@ -982,8 +1044,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table139" displayName="Table139" ref="A3:F5" totalsRowShown="0" headerRowDxfId="87" dataDxfId="86">
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table138" displayName="Table138" ref="A3:F5" totalsRowShown="0" headerRowDxfId="87" dataDxfId="86">
   <autoFilter ref="A3:F5"/>
   <tableColumns count="6">
     <tableColumn id="1" name="ID" dataDxfId="85"/>
@@ -997,8 +1059,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table1310" displayName="Table1310" ref="A3:F5" totalsRowShown="0" headerRowDxfId="79" dataDxfId="78">
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table139" displayName="Table139" ref="A3:F5" totalsRowShown="0" headerRowDxfId="79" dataDxfId="78">
   <autoFilter ref="A3:F5"/>
   <tableColumns count="6">
     <tableColumn id="1" name="ID" dataDxfId="77"/>
@@ -1012,8 +1074,8 @@
 </table>
 </file>
 
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table1311" displayName="Table1311" ref="A3:F5" totalsRowShown="0" headerRowDxfId="71" dataDxfId="70">
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table1310" displayName="Table1310" ref="A3:F5" totalsRowShown="0" headerRowDxfId="71" dataDxfId="70">
   <autoFilter ref="A3:F5"/>
   <tableColumns count="6">
     <tableColumn id="1" name="ID" dataDxfId="69"/>
@@ -1022,6 +1084,21 @@
     <tableColumn id="4" name="Notes" dataDxfId="66"/>
     <tableColumn id="5" name="Reviewer Name" dataDxfId="65"/>
     <tableColumn id="6" name="publisher notes" dataDxfId="64"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table1311" displayName="Table1311" ref="A3:F5" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62">
+  <autoFilter ref="A3:F5"/>
+  <tableColumns count="6">
+    <tableColumn id="1" name="ID" dataDxfId="61"/>
+    <tableColumn id="2" name="Document ID" dataDxfId="60"/>
+    <tableColumn id="3" name="Document Version" dataDxfId="59"/>
+    <tableColumn id="4" name="Notes" dataDxfId="58"/>
+    <tableColumn id="5" name="Reviewer Name" dataDxfId="57"/>
+    <tableColumn id="6" name="publisher notes" dataDxfId="56"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1540,7 +1617,7 @@
   <dimension ref="A3:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:F5"/>
+      <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1594,7 +1671,7 @@
   <dimension ref="A3:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:F5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1648,7 +1725,7 @@
   <dimension ref="A3:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:F5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1849,10 +1926,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:F29"/>
+  <dimension ref="A3:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2325,7 +2402,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>88</v>
       </c>
@@ -2345,7 +2422,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2" t="s">
         <v>92</v>
@@ -2383,13 +2460,83 @@
         <v>91</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
+    <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" s="6" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F32" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Documents/Foodies_PR.xlsx
+++ b/Documents/Foodies_PR.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="7" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="RTM" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="115">
   <si>
     <t>publisher notes</t>
   </si>
@@ -366,6 +366,21 @@
   </si>
   <si>
     <t>redundant with Foodies_SRS_025</t>
+  </si>
+  <si>
+    <t>Foodies_RACI_001</t>
+  </si>
+  <si>
+    <t>RACI</t>
+  </si>
+  <si>
+    <t>Aya Hamdy</t>
+  </si>
+  <si>
+    <t>All tasks should be documented</t>
+  </si>
+  <si>
+    <t>done for implementation phase</t>
   </si>
 </sst>
 </file>
@@ -441,7 +456,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -462,16 +477,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="128">
     <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -492,12 +510,6 @@
       <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -739,6 +751,15 @@
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -880,105 +901,105 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table1312" displayName="Table1312" ref="A3:F5" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table1312" displayName="Table1312" ref="A3:F5" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59">
   <autoFilter ref="A3:F5"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="ID" dataDxfId="53"/>
-    <tableColumn id="2" name="Document ID" dataDxfId="52"/>
-    <tableColumn id="3" name="Document Version" dataDxfId="51"/>
-    <tableColumn id="4" name="Notes" dataDxfId="50"/>
-    <tableColumn id="5" name="Reviewer Name" dataDxfId="49"/>
-    <tableColumn id="6" name="publisher notes" dataDxfId="48"/>
+    <tableColumn id="1" name="ID" dataDxfId="58"/>
+    <tableColumn id="2" name="Document ID" dataDxfId="57"/>
+    <tableColumn id="3" name="Document Version" dataDxfId="56"/>
+    <tableColumn id="4" name="Notes" dataDxfId="55"/>
+    <tableColumn id="5" name="Reviewer Name" dataDxfId="54"/>
+    <tableColumn id="6" name="publisher notes" dataDxfId="53"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table1313" displayName="Table1313" ref="A3:F5" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table1313" displayName="Table1313" ref="A3:F5" totalsRowShown="0" headerRowDxfId="52" dataDxfId="51">
   <autoFilter ref="A3:F5"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="ID" dataDxfId="45"/>
-    <tableColumn id="2" name="Document ID" dataDxfId="44"/>
-    <tableColumn id="3" name="Document Version" dataDxfId="43"/>
-    <tableColumn id="4" name="Notes" dataDxfId="42"/>
-    <tableColumn id="5" name="Reviewer Name" dataDxfId="41"/>
-    <tableColumn id="6" name="publisher notes" dataDxfId="40"/>
+    <tableColumn id="1" name="ID" dataDxfId="50"/>
+    <tableColumn id="2" name="Document ID" dataDxfId="49"/>
+    <tableColumn id="3" name="Document Version" dataDxfId="48"/>
+    <tableColumn id="4" name="Notes" dataDxfId="47"/>
+    <tableColumn id="5" name="Reviewer Name" dataDxfId="46"/>
+    <tableColumn id="6" name="publisher notes" dataDxfId="45"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table1314" displayName="Table1314" ref="A3:F5" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table1314" displayName="Table1314" ref="A3:F5" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
   <autoFilter ref="A3:F5"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="ID" dataDxfId="37"/>
-    <tableColumn id="2" name="Document ID" dataDxfId="36"/>
-    <tableColumn id="3" name="Document Version" dataDxfId="35"/>
-    <tableColumn id="4" name="Notes" dataDxfId="34"/>
-    <tableColumn id="5" name="Reviewer Name" dataDxfId="33"/>
-    <tableColumn id="6" name="publisher notes" dataDxfId="32"/>
+    <tableColumn id="1" name="ID" dataDxfId="42"/>
+    <tableColumn id="2" name="Document ID" dataDxfId="41"/>
+    <tableColumn id="3" name="Document Version" dataDxfId="40"/>
+    <tableColumn id="4" name="Notes" dataDxfId="39"/>
+    <tableColumn id="5" name="Reviewer Name" dataDxfId="38"/>
+    <tableColumn id="6" name="publisher notes" dataDxfId="37"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table1315" displayName="Table1315" ref="A3:F5" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table1315" displayName="Table1315" ref="A3:F5" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
   <autoFilter ref="A3:F5"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="ID" dataDxfId="29"/>
-    <tableColumn id="2" name="Document ID" dataDxfId="28"/>
-    <tableColumn id="3" name="Document Version" dataDxfId="27"/>
-    <tableColumn id="4" name="Notes" dataDxfId="26"/>
-    <tableColumn id="5" name="Reviewer Name" dataDxfId="25"/>
-    <tableColumn id="6" name="publisher notes" dataDxfId="24"/>
+    <tableColumn id="1" name="ID" dataDxfId="34"/>
+    <tableColumn id="2" name="Document ID" dataDxfId="33"/>
+    <tableColumn id="3" name="Document Version" dataDxfId="32"/>
+    <tableColumn id="4" name="Notes" dataDxfId="31"/>
+    <tableColumn id="5" name="Reviewer Name" dataDxfId="30"/>
+    <tableColumn id="6" name="publisher notes" dataDxfId="29"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table1316" displayName="Table1316" ref="A3:F5" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table1316" displayName="Table1316" ref="A3:F5" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
   <autoFilter ref="A3:F5"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="ID" dataDxfId="21"/>
-    <tableColumn id="2" name="Document ID" dataDxfId="20"/>
-    <tableColumn id="3" name="Document Version" dataDxfId="19"/>
-    <tableColumn id="4" name="Notes" dataDxfId="18"/>
-    <tableColumn id="5" name="Reviewer Name" dataDxfId="17"/>
-    <tableColumn id="6" name="publisher notes" dataDxfId="16"/>
+    <tableColumn id="1" name="ID" dataDxfId="26"/>
+    <tableColumn id="2" name="Document ID" dataDxfId="25"/>
+    <tableColumn id="3" name="Document Version" dataDxfId="24"/>
+    <tableColumn id="4" name="Notes" dataDxfId="23"/>
+    <tableColumn id="5" name="Reviewer Name" dataDxfId="22"/>
+    <tableColumn id="6" name="publisher notes" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Table1317" displayName="Table1317" ref="A3:F5" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Table1317" displayName="Table1317" ref="A3:F5" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
   <autoFilter ref="A3:F5"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="ID" dataDxfId="13"/>
-    <tableColumn id="2" name="Document ID" dataDxfId="12"/>
-    <tableColumn id="3" name="Document Version" dataDxfId="11"/>
-    <tableColumn id="4" name="Notes" dataDxfId="10"/>
-    <tableColumn id="5" name="Reviewer Name" dataDxfId="9"/>
-    <tableColumn id="6" name="publisher notes" dataDxfId="8"/>
+    <tableColumn id="1" name="ID" dataDxfId="18"/>
+    <tableColumn id="2" name="Document ID" dataDxfId="17"/>
+    <tableColumn id="3" name="Document Version" dataDxfId="16"/>
+    <tableColumn id="4" name="Notes" dataDxfId="15"/>
+    <tableColumn id="5" name="Reviewer Name" dataDxfId="14"/>
+    <tableColumn id="6" name="publisher notes" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table13174" displayName="Table13174" ref="A3:F11" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table13174" displayName="Table13174" ref="A3:F11" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
   <autoFilter ref="A3:F11"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="ID" dataDxfId="5"/>
-    <tableColumn id="2" name="Document ID" dataDxfId="4"/>
-    <tableColumn id="3" name="Document Version" dataDxfId="3"/>
-    <tableColumn id="4" name="Notes" dataDxfId="2"/>
-    <tableColumn id="5" name="Reviewer Name" dataDxfId="1"/>
-    <tableColumn id="6" name="publisher notes" dataDxfId="0"/>
+    <tableColumn id="1" name="ID" dataDxfId="10"/>
+    <tableColumn id="2" name="Document ID" dataDxfId="9"/>
+    <tableColumn id="3" name="Document Version" dataDxfId="8"/>
+    <tableColumn id="4" name="Notes" dataDxfId="7"/>
+    <tableColumn id="5" name="Reviewer Name" dataDxfId="6"/>
+    <tableColumn id="6" name="publisher notes" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1030,75 +1051,75 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table137" displayName="Table137" ref="A3:F5" totalsRowShown="0" headerRowDxfId="95" dataDxfId="94">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table137" displayName="Table137" ref="A3:F5" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
   <autoFilter ref="A3:F5"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="ID" dataDxfId="93"/>
-    <tableColumn id="2" name="Document ID" dataDxfId="92"/>
-    <tableColumn id="3" name="Document Version" dataDxfId="91"/>
-    <tableColumn id="4" name="Notes" dataDxfId="90"/>
-    <tableColumn id="5" name="Reviewer Name" dataDxfId="89"/>
-    <tableColumn id="6" name="publisher notes" dataDxfId="88"/>
+    <tableColumn id="1" name="ID" dataDxfId="95"/>
+    <tableColumn id="2" name="Document ID" dataDxfId="2"/>
+    <tableColumn id="3" name="Document Version" dataDxfId="0"/>
+    <tableColumn id="4" name="Notes" dataDxfId="1"/>
+    <tableColumn id="5" name="Reviewer Name" dataDxfId="94"/>
+    <tableColumn id="6" name="publisher notes" dataDxfId="93"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table138" displayName="Table138" ref="A3:F5" totalsRowShown="0" headerRowDxfId="87" dataDxfId="86">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table138" displayName="Table138" ref="A3:F5" totalsRowShown="0" headerRowDxfId="92" dataDxfId="91">
   <autoFilter ref="A3:F5"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="ID" dataDxfId="85"/>
-    <tableColumn id="2" name="Document ID" dataDxfId="84"/>
-    <tableColumn id="3" name="Document Version" dataDxfId="83"/>
-    <tableColumn id="4" name="Notes" dataDxfId="82"/>
-    <tableColumn id="5" name="Reviewer Name" dataDxfId="81"/>
-    <tableColumn id="6" name="publisher notes" dataDxfId="80"/>
+    <tableColumn id="1" name="ID" dataDxfId="90"/>
+    <tableColumn id="2" name="Document ID" dataDxfId="89"/>
+    <tableColumn id="3" name="Document Version" dataDxfId="88"/>
+    <tableColumn id="4" name="Notes" dataDxfId="87"/>
+    <tableColumn id="5" name="Reviewer Name" dataDxfId="86"/>
+    <tableColumn id="6" name="publisher notes" dataDxfId="85"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table139" displayName="Table139" ref="A3:F5" totalsRowShown="0" headerRowDxfId="79" dataDxfId="78">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table139" displayName="Table139" ref="A3:F5" totalsRowShown="0" headerRowDxfId="84" dataDxfId="83">
   <autoFilter ref="A3:F5"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="ID" dataDxfId="77"/>
-    <tableColumn id="2" name="Document ID" dataDxfId="76"/>
-    <tableColumn id="3" name="Document Version" dataDxfId="75"/>
-    <tableColumn id="4" name="Notes" dataDxfId="74"/>
-    <tableColumn id="5" name="Reviewer Name" dataDxfId="73"/>
-    <tableColumn id="6" name="publisher notes" dataDxfId="72"/>
+    <tableColumn id="1" name="ID" dataDxfId="82"/>
+    <tableColumn id="2" name="Document ID" dataDxfId="81"/>
+    <tableColumn id="3" name="Document Version" dataDxfId="80"/>
+    <tableColumn id="4" name="Notes" dataDxfId="79"/>
+    <tableColumn id="5" name="Reviewer Name" dataDxfId="78"/>
+    <tableColumn id="6" name="publisher notes" dataDxfId="77"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table1310" displayName="Table1310" ref="A3:F5" totalsRowShown="0" headerRowDxfId="71" dataDxfId="70">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table1310" displayName="Table1310" ref="A3:F5" totalsRowShown="0" headerRowDxfId="76" dataDxfId="75">
   <autoFilter ref="A3:F5"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="ID" dataDxfId="69"/>
-    <tableColumn id="2" name="Document ID" dataDxfId="68"/>
-    <tableColumn id="3" name="Document Version" dataDxfId="67"/>
-    <tableColumn id="4" name="Notes" dataDxfId="66"/>
-    <tableColumn id="5" name="Reviewer Name" dataDxfId="65"/>
-    <tableColumn id="6" name="publisher notes" dataDxfId="64"/>
+    <tableColumn id="1" name="ID" dataDxfId="74"/>
+    <tableColumn id="2" name="Document ID" dataDxfId="73"/>
+    <tableColumn id="3" name="Document Version" dataDxfId="72"/>
+    <tableColumn id="4" name="Notes" dataDxfId="71"/>
+    <tableColumn id="5" name="Reviewer Name" dataDxfId="70"/>
+    <tableColumn id="6" name="publisher notes" dataDxfId="69"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table1311" displayName="Table1311" ref="A3:F5" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table1311" displayName="Table1311" ref="A3:F5" totalsRowShown="0" headerRowDxfId="68" dataDxfId="67">
   <autoFilter ref="A3:F5"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="ID" dataDxfId="61"/>
-    <tableColumn id="2" name="Document ID" dataDxfId="60"/>
-    <tableColumn id="3" name="Document Version" dataDxfId="59"/>
-    <tableColumn id="4" name="Notes" dataDxfId="58"/>
-    <tableColumn id="5" name="Reviewer Name" dataDxfId="57"/>
-    <tableColumn id="6" name="publisher notes" dataDxfId="56"/>
+    <tableColumn id="1" name="ID" dataDxfId="66"/>
+    <tableColumn id="2" name="Document ID" dataDxfId="65"/>
+    <tableColumn id="3" name="Document Version" dataDxfId="64"/>
+    <tableColumn id="4" name="Notes" dataDxfId="63"/>
+    <tableColumn id="5" name="Reviewer Name" dataDxfId="62"/>
+    <tableColumn id="6" name="publisher notes" dataDxfId="61"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1778,8 +1799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1928,8 +1949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2659,10 +2680,18 @@
   <dimension ref="A3:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:F5"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23.140625" customWidth="1"/>
+    <col min="2" max="2" width="29.85546875" customWidth="1"/>
+    <col min="3" max="3" width="30.5703125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="28.140625" customWidth="1"/>
+    <col min="5" max="5" width="19.7109375" customWidth="1"/>
+    <col min="6" max="6" width="31.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -2671,7 +2700,7 @@
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="8" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -2684,18 +2713,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C4" s="8">
+        <v>1.4</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="C5" s="8"/>
       <c r="D5" s="2"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>

--- a/Documents/Foodies_PR.xlsx
+++ b/Documents/Foodies_PR.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="7" activeTab="15"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="RTM" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="115">
   <si>
     <t>publisher notes</t>
   </si>
@@ -402,7 +402,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -415,8 +415,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -452,11 +458,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -483,286 +504,289 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="128">
     <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -901,105 +925,105 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table1312" displayName="Table1312" ref="A3:F5" totalsRowShown="0" headerRowDxfId="60" dataDxfId="59">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table1312" displayName="Table1312" ref="A3:F5" totalsRowShown="0" headerRowDxfId="55" dataDxfId="54">
   <autoFilter ref="A3:F5"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="ID" dataDxfId="58"/>
-    <tableColumn id="2" name="Document ID" dataDxfId="57"/>
-    <tableColumn id="3" name="Document Version" dataDxfId="56"/>
-    <tableColumn id="4" name="Notes" dataDxfId="55"/>
-    <tableColumn id="5" name="Reviewer Name" dataDxfId="54"/>
-    <tableColumn id="6" name="publisher notes" dataDxfId="53"/>
+    <tableColumn id="1" name="ID" dataDxfId="53"/>
+    <tableColumn id="2" name="Document ID" dataDxfId="52"/>
+    <tableColumn id="3" name="Document Version" dataDxfId="51"/>
+    <tableColumn id="4" name="Notes" dataDxfId="50"/>
+    <tableColumn id="5" name="Reviewer Name" dataDxfId="49"/>
+    <tableColumn id="6" name="publisher notes" dataDxfId="48"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table1313" displayName="Table1313" ref="A3:F5" totalsRowShown="0" headerRowDxfId="52" dataDxfId="51">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="12" name="Table1313" displayName="Table1313" ref="A3:F5" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
   <autoFilter ref="A3:F5"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="ID" dataDxfId="50"/>
-    <tableColumn id="2" name="Document ID" dataDxfId="49"/>
-    <tableColumn id="3" name="Document Version" dataDxfId="48"/>
-    <tableColumn id="4" name="Notes" dataDxfId="47"/>
-    <tableColumn id="5" name="Reviewer Name" dataDxfId="46"/>
-    <tableColumn id="6" name="publisher notes" dataDxfId="45"/>
+    <tableColumn id="1" name="ID" dataDxfId="45"/>
+    <tableColumn id="2" name="Document ID" dataDxfId="44"/>
+    <tableColumn id="3" name="Document Version" dataDxfId="43"/>
+    <tableColumn id="4" name="Notes" dataDxfId="42"/>
+    <tableColumn id="5" name="Reviewer Name" dataDxfId="41"/>
+    <tableColumn id="6" name="publisher notes" dataDxfId="40"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table1314" displayName="Table1314" ref="A3:F5" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="13" name="Table1314" displayName="Table1314" ref="A3:F5" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
   <autoFilter ref="A3:F5"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="ID" dataDxfId="42"/>
-    <tableColumn id="2" name="Document ID" dataDxfId="41"/>
-    <tableColumn id="3" name="Document Version" dataDxfId="40"/>
-    <tableColumn id="4" name="Notes" dataDxfId="39"/>
-    <tableColumn id="5" name="Reviewer Name" dataDxfId="38"/>
-    <tableColumn id="6" name="publisher notes" dataDxfId="37"/>
+    <tableColumn id="1" name="ID" dataDxfId="37"/>
+    <tableColumn id="2" name="Document ID" dataDxfId="36"/>
+    <tableColumn id="3" name="Document Version" dataDxfId="35"/>
+    <tableColumn id="4" name="Notes" dataDxfId="34"/>
+    <tableColumn id="5" name="Reviewer Name" dataDxfId="33"/>
+    <tableColumn id="6" name="publisher notes" dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table1315" displayName="Table1315" ref="A3:F5" totalsRowShown="0" headerRowDxfId="36" dataDxfId="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="14" name="Table1315" displayName="Table1315" ref="A3:F5" totalsRowShown="0" headerRowDxfId="31" dataDxfId="30">
   <autoFilter ref="A3:F5"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="ID" dataDxfId="34"/>
-    <tableColumn id="2" name="Document ID" dataDxfId="33"/>
-    <tableColumn id="3" name="Document Version" dataDxfId="32"/>
-    <tableColumn id="4" name="Notes" dataDxfId="31"/>
-    <tableColumn id="5" name="Reviewer Name" dataDxfId="30"/>
-    <tableColumn id="6" name="publisher notes" dataDxfId="29"/>
+    <tableColumn id="1" name="ID" dataDxfId="29"/>
+    <tableColumn id="2" name="Document ID" dataDxfId="28"/>
+    <tableColumn id="3" name="Document Version" dataDxfId="27"/>
+    <tableColumn id="4" name="Notes" dataDxfId="26"/>
+    <tableColumn id="5" name="Reviewer Name" dataDxfId="25"/>
+    <tableColumn id="6" name="publisher notes" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table1316" displayName="Table1316" ref="A3:F5" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="15" name="Table1316" displayName="Table1316" ref="A3:F5" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
   <autoFilter ref="A3:F5"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="ID" dataDxfId="26"/>
-    <tableColumn id="2" name="Document ID" dataDxfId="25"/>
-    <tableColumn id="3" name="Document Version" dataDxfId="24"/>
-    <tableColumn id="4" name="Notes" dataDxfId="23"/>
-    <tableColumn id="5" name="Reviewer Name" dataDxfId="22"/>
-    <tableColumn id="6" name="publisher notes" dataDxfId="21"/>
+    <tableColumn id="1" name="ID" dataDxfId="21"/>
+    <tableColumn id="2" name="Document ID" dataDxfId="20"/>
+    <tableColumn id="3" name="Document Version" dataDxfId="19"/>
+    <tableColumn id="4" name="Notes" dataDxfId="18"/>
+    <tableColumn id="5" name="Reviewer Name" dataDxfId="17"/>
+    <tableColumn id="6" name="publisher notes" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Table1317" displayName="Table1317" ref="A3:F5" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="16" name="Table1317" displayName="Table1317" ref="A3:F5" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
   <autoFilter ref="A3:F5"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="ID" dataDxfId="18"/>
-    <tableColumn id="2" name="Document ID" dataDxfId="17"/>
-    <tableColumn id="3" name="Document Version" dataDxfId="16"/>
-    <tableColumn id="4" name="Notes" dataDxfId="15"/>
-    <tableColumn id="5" name="Reviewer Name" dataDxfId="14"/>
-    <tableColumn id="6" name="publisher notes" dataDxfId="13"/>
+    <tableColumn id="1" name="ID" dataDxfId="13"/>
+    <tableColumn id="2" name="Document ID" dataDxfId="12"/>
+    <tableColumn id="3" name="Document Version" dataDxfId="11"/>
+    <tableColumn id="4" name="Notes" dataDxfId="10"/>
+    <tableColumn id="5" name="Reviewer Name" dataDxfId="9"/>
+    <tableColumn id="6" name="publisher notes" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table16.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table13174" displayName="Table13174" ref="A3:F11" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table13174" displayName="Table13174" ref="A3:F11" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="A3:F11"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="ID" dataDxfId="10"/>
-    <tableColumn id="2" name="Document ID" dataDxfId="9"/>
-    <tableColumn id="3" name="Document Version" dataDxfId="8"/>
-    <tableColumn id="4" name="Notes" dataDxfId="7"/>
-    <tableColumn id="5" name="Reviewer Name" dataDxfId="6"/>
-    <tableColumn id="6" name="publisher notes" dataDxfId="5"/>
+    <tableColumn id="1" name="ID" dataDxfId="5"/>
+    <tableColumn id="2" name="Document ID" dataDxfId="4"/>
+    <tableColumn id="3" name="Document Version" dataDxfId="3"/>
+    <tableColumn id="4" name="Notes" dataDxfId="2"/>
+    <tableColumn id="5" name="Reviewer Name" dataDxfId="1"/>
+    <tableColumn id="6" name="publisher notes" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1051,75 +1075,75 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table137" displayName="Table137" ref="A3:F5" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table137" displayName="Table137" ref="A3:F5" totalsRowShown="0" headerRowDxfId="95" dataDxfId="94">
   <autoFilter ref="A3:F5"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="ID" dataDxfId="95"/>
-    <tableColumn id="2" name="Document ID" dataDxfId="2"/>
-    <tableColumn id="3" name="Document Version" dataDxfId="0"/>
-    <tableColumn id="4" name="Notes" dataDxfId="1"/>
-    <tableColumn id="5" name="Reviewer Name" dataDxfId="94"/>
-    <tableColumn id="6" name="publisher notes" dataDxfId="93"/>
+    <tableColumn id="1" name="ID" dataDxfId="93"/>
+    <tableColumn id="2" name="Document ID" dataDxfId="92"/>
+    <tableColumn id="3" name="Document Version" dataDxfId="91"/>
+    <tableColumn id="4" name="Notes" dataDxfId="90"/>
+    <tableColumn id="5" name="Reviewer Name" dataDxfId="89"/>
+    <tableColumn id="6" name="publisher notes" dataDxfId="88"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table138" displayName="Table138" ref="A3:F5" totalsRowShown="0" headerRowDxfId="92" dataDxfId="91">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table138" displayName="Table138" ref="A3:F5" totalsRowShown="0" headerRowDxfId="87" dataDxfId="86">
   <autoFilter ref="A3:F5"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="ID" dataDxfId="90"/>
-    <tableColumn id="2" name="Document ID" dataDxfId="89"/>
-    <tableColumn id="3" name="Document Version" dataDxfId="88"/>
-    <tableColumn id="4" name="Notes" dataDxfId="87"/>
-    <tableColumn id="5" name="Reviewer Name" dataDxfId="86"/>
-    <tableColumn id="6" name="publisher notes" dataDxfId="85"/>
+    <tableColumn id="1" name="ID" dataDxfId="85"/>
+    <tableColumn id="2" name="Document ID" dataDxfId="84"/>
+    <tableColumn id="3" name="Document Version" dataDxfId="83"/>
+    <tableColumn id="4" name="Notes" dataDxfId="82"/>
+    <tableColumn id="5" name="Reviewer Name" dataDxfId="81"/>
+    <tableColumn id="6" name="publisher notes" dataDxfId="80"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table139" displayName="Table139" ref="A3:F5" totalsRowShown="0" headerRowDxfId="84" dataDxfId="83">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table139" displayName="Table139" ref="A3:F5" totalsRowShown="0" headerRowDxfId="79" dataDxfId="78">
   <autoFilter ref="A3:F5"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="ID" dataDxfId="82"/>
-    <tableColumn id="2" name="Document ID" dataDxfId="81"/>
-    <tableColumn id="3" name="Document Version" dataDxfId="80"/>
-    <tableColumn id="4" name="Notes" dataDxfId="79"/>
-    <tableColumn id="5" name="Reviewer Name" dataDxfId="78"/>
-    <tableColumn id="6" name="publisher notes" dataDxfId="77"/>
+    <tableColumn id="1" name="ID" dataDxfId="77"/>
+    <tableColumn id="2" name="Document ID" dataDxfId="76"/>
+    <tableColumn id="3" name="Document Version" dataDxfId="75"/>
+    <tableColumn id="4" name="Notes" dataDxfId="74"/>
+    <tableColumn id="5" name="Reviewer Name" dataDxfId="73"/>
+    <tableColumn id="6" name="publisher notes" dataDxfId="72"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table1310" displayName="Table1310" ref="A3:F5" totalsRowShown="0" headerRowDxfId="76" dataDxfId="75">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Table1310" displayName="Table1310" ref="A3:F5" totalsRowShown="0" headerRowDxfId="71" dataDxfId="70">
   <autoFilter ref="A3:F5"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="ID" dataDxfId="74"/>
-    <tableColumn id="2" name="Document ID" dataDxfId="73"/>
-    <tableColumn id="3" name="Document Version" dataDxfId="72"/>
-    <tableColumn id="4" name="Notes" dataDxfId="71"/>
-    <tableColumn id="5" name="Reviewer Name" dataDxfId="70"/>
-    <tableColumn id="6" name="publisher notes" dataDxfId="69"/>
+    <tableColumn id="1" name="ID" dataDxfId="69"/>
+    <tableColumn id="2" name="Document ID" dataDxfId="68"/>
+    <tableColumn id="3" name="Document Version" dataDxfId="67"/>
+    <tableColumn id="4" name="Notes" dataDxfId="66"/>
+    <tableColumn id="5" name="Reviewer Name" dataDxfId="65"/>
+    <tableColumn id="6" name="publisher notes" dataDxfId="64"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table1311" displayName="Table1311" ref="A3:F5" totalsRowShown="0" headerRowDxfId="68" dataDxfId="67">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="10" name="Table1311" displayName="Table1311" ref="A3:F5" totalsRowShown="0" headerRowDxfId="63" dataDxfId="62">
   <autoFilter ref="A3:F5"/>
   <tableColumns count="6">
-    <tableColumn id="1" name="ID" dataDxfId="66"/>
-    <tableColumn id="2" name="Document ID" dataDxfId="65"/>
-    <tableColumn id="3" name="Document Version" dataDxfId="64"/>
-    <tableColumn id="4" name="Notes" dataDxfId="63"/>
-    <tableColumn id="5" name="Reviewer Name" dataDxfId="62"/>
-    <tableColumn id="6" name="publisher notes" dataDxfId="61"/>
+    <tableColumn id="1" name="ID" dataDxfId="61"/>
+    <tableColumn id="2" name="Document ID" dataDxfId="60"/>
+    <tableColumn id="3" name="Document Version" dataDxfId="59"/>
+    <tableColumn id="4" name="Notes" dataDxfId="58"/>
+    <tableColumn id="5" name="Reviewer Name" dataDxfId="57"/>
+    <tableColumn id="6" name="publisher notes" dataDxfId="56"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1799,8 +1823,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1949,7 +1973,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:F32"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
@@ -2557,7 +2581,9 @@
       <c r="E32" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="F32" s="5"/>
+      <c r="F32" s="10" t="s">
+        <v>91</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2916,7 +2942,7 @@
   <dimension ref="A3:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:F5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Documents/Foodies_PR.xlsx
+++ b/Documents/Foodies_PR.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="RTM" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="118">
   <si>
     <t>publisher notes</t>
   </si>
@@ -381,6 +381,15 @@
   </si>
   <si>
     <t>done for implementation phase</t>
+  </si>
+  <si>
+    <t>Foodies_PP_001</t>
+  </si>
+  <si>
+    <t>Foodies_PP</t>
+  </si>
+  <si>
+    <t>Please update project team section 4.4.1 As Raci Table</t>
   </si>
 </sst>
 </file>
@@ -1499,11 +1508,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:F5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="34.140625" customWidth="1"/>
+    <col min="2" max="2" width="37.85546875" customWidth="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" customWidth="1"/>
+    <col min="5" max="5" width="21" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -1525,12 +1542,22 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="1"/>
+    <row r="4" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>112</v>
+      </c>
       <c r="F4" s="1"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -1973,7 +2000,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:F32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+    <sheetView topLeftCell="A24" workbookViewId="0">
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>

--- a/Documents/Foodies_PR.xlsx
+++ b/Documents/Foodies_PR.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="7" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="RTM" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="121">
   <si>
     <t>publisher notes</t>
   </si>
@@ -390,6 +390,15 @@
   </si>
   <si>
     <t>Please update project team section 4.4.1 As Raci Table</t>
+  </si>
+  <si>
+    <t>PR_SDD_005</t>
+  </si>
+  <si>
+    <t>Foodies_Sys_DFD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Update DFD According to the modified SRS </t>
   </si>
 </sst>
 </file>
@@ -522,13 +531,13 @@
   </cellStyles>
   <dxfs count="128">
     <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1028,11 +1037,11 @@
   <autoFilter ref="A3:F11"/>
   <tableColumns count="6">
     <tableColumn id="1" name="ID" dataDxfId="5"/>
-    <tableColumn id="2" name="Document ID" dataDxfId="4"/>
-    <tableColumn id="3" name="Document Version" dataDxfId="3"/>
-    <tableColumn id="4" name="Notes" dataDxfId="2"/>
-    <tableColumn id="5" name="Reviewer Name" dataDxfId="1"/>
-    <tableColumn id="6" name="publisher notes" dataDxfId="0"/>
+    <tableColumn id="2" name="Document ID" dataDxfId="2"/>
+    <tableColumn id="3" name="Document Version" dataDxfId="0"/>
+    <tableColumn id="4" name="Notes" dataDxfId="1"/>
+    <tableColumn id="5" name="Reviewer Name" dataDxfId="4"/>
+    <tableColumn id="6" name="publisher notes" dataDxfId="3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1508,7 +1517,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -1850,15 +1859,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.5703125" customWidth="1"/>
     <col min="2" max="2" width="30.28515625" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" customWidth="1"/>
+    <col min="3" max="3" width="24.140625" style="9" customWidth="1"/>
     <col min="4" max="4" width="34.28515625" customWidth="1"/>
     <col min="5" max="5" width="24.140625" customWidth="1"/>
     <col min="6" max="6" width="24.5703125" customWidth="1"/>
@@ -1871,7 +1880,7 @@
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="8" t="s">
         <v>3</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -1956,18 +1965,28 @@
       </c>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="1"/>
+    <row r="8" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C8" s="8">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>112</v>
+      </c>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+      <c r="C9" s="8"/>
       <c r="D9" s="2"/>
       <c r="E9" s="1"/>
       <c r="F9" s="1"/>
@@ -1975,7 +1994,7 @@
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+      <c r="C10" s="8"/>
       <c r="D10" s="2"/>
       <c r="E10" s="1"/>
       <c r="F10" s="1"/>
@@ -1983,7 +2002,7 @@
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
+      <c r="C11" s="8"/>
       <c r="D11" s="2"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
